--- a/Localization/Translation Master.xlsx
+++ b/Localization/Translation Master.xlsx
@@ -11004,8 +11004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Localization/Translation Master.xlsx
+++ b/Localization/Translation Master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="3420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4147" uniqueCount="3521">
   <si>
     <t>English</t>
   </si>
@@ -7639,9 +7639,6 @@
     <t>切换慢模</t>
   </si>
   <si>
-    <t>按\ n {0} \ n要加入</t>
-  </si>
-  <si>
     <t>顶帽</t>
   </si>
   <si>
@@ -7807,9 +7804,6 @@
     <t>裏地</t>
   </si>
   <si>
-    <t>日本人</t>
-  </si>
-  <si>
     <t>Deutsch</t>
   </si>
   <si>
@@ -7834,9 +7828,6 @@
     <t>中国的</t>
   </si>
   <si>
-    <t>{0}ボタン\nでゲーム\nに参加できます</t>
-  </si>
-  <si>
     <t>Select</t>
   </si>
   <si>
@@ -7897,9 +7888,6 @@
     <t>Контрольная точка</t>
   </si>
   <si>
-    <t>보도 \ N {0} \ n 인물 가입</t>
-  </si>
-  <si>
     <t>사용자 정의</t>
   </si>
   <si>
@@ -7957,9 +7945,6 @@
     <t>당신이 리더 \ 이외의 순위가 결정되는 것은 아닙니다.</t>
   </si>
   <si>
-    <t>친구들이 리더에 위를​​ 차지 \ nnot 있습니다.</t>
-  </si>
-  <si>
     <t>아케이드, 총</t>
   </si>
   <si>
@@ -8026,9 +8011,6 @@
     <t>你是不是\非本排行榜排名。</t>
   </si>
   <si>
-    <t>你的朋友是\ n不是这个排行榜上的排名。</t>
-  </si>
-  <si>
     <t>商场，总</t>
   </si>
   <si>
@@ -8053,9 +8035,6 @@
     <t>O Capítulo {0}</t>
   </si>
   <si>
-    <t>Capitolo {0}</t>
-  </si>
-  <si>
     <t>Capítulo {0}</t>
   </si>
   <si>
@@ -8242,9 +8221,6 @@
     <t>Kapitel 6, Das Schloss</t>
   </si>
   <si>
-    <t>Würdigung</t>
-  </si>
-  <si>
     <t>Minispiele</t>
   </si>
   <si>
@@ -8833,63 +8809,9 @@
     <t>PlayerLevel</t>
   </si>
   <si>
-    <t>Visualizza Gamer Card</t>
-  </si>
-  <si>
-    <t>Non sono ancora classificati in questa classifica.</t>
-  </si>
-  <si>
-    <t>I tuoi amici non sono ancora classificati in questa classifica.</t>
-  </si>
-  <si>
-    <t>L', Arcade Total</t>
-  </si>
-  <si>
-    <t>Entra?</t>
-  </si>
-  <si>
-    <t>Capitolo 1, Il Mare</t>
-  </si>
-  <si>
-    <t>Capitolo 4, Le Nuvole</t>
-  </si>
-  <si>
-    <t>Capitolo 6, Il Castello</t>
-  </si>
-  <si>
-    <t>Richiesto</t>
-  </si>
-  <si>
-    <t>Amici Punteggi</t>
-  </si>
-  <si>
-    <t>I Punteggi Migliori</t>
-  </si>
-  <si>
-    <t>I Miei Punteggi</t>
-  </si>
-  <si>
-    <t>Per Livello</t>
-  </si>
-  <si>
-    <t>Selezionare</t>
-  </si>
-  <si>
-    <t>Livello del Giocatore</t>
-  </si>
-  <si>
     <t>Cancellare</t>
   </si>
   <si>
-    <t>Capitolo 3, La Foresta</t>
-  </si>
-  <si>
-    <t>Capitolo 2, Le Colline</t>
-  </si>
-  <si>
-    <t>Capitolo 5, La Grotta</t>
-  </si>
-  <si>
     <t>Drücke {0}um sofort neuzustarten</t>
   </si>
   <si>
@@ -9661,12 +9583,6 @@
     <t>Hai Ottenuto un Trofeo</t>
   </si>
   <si>
-    <t>Per Punteggio</t>
-  </si>
-  <si>
-    <t>Sblocca il Gioco Completo</t>
-  </si>
-  <si>
     <t>Appuie sur Démarrer</t>
   </si>
   <si>
@@ -10274,13 +10190,400 @@
   </si>
   <si>
     <t>Drücke {0}</t>
+  </si>
+  <si>
+    <t>The campaign requires the full game. Would you like to unlock the full Cloudberry Kingdom?</t>
+  </si>
+  <si>
+    <t>UpSell_Campaign</t>
+  </si>
+  <si>
+    <t>UpSell_Hero</t>
+  </si>
+  <si>
+    <t>This hero requires the full game. Would you like to unlock the full version of Cloudberry Kingdom?</t>
+  </si>
+  <si>
+    <t>UpSell_FreePlay</t>
+  </si>
+  <si>
+    <t>Free Play is fun! Woooh!\nWould you like to unlock the full version of Cloudberry Kingdom to keep playing?</t>
+  </si>
+  <si>
+    <t>{0}\nに\n参\n加\nで\nき\nま\nす</t>
+  </si>
+  <si>
+    <t>보도\n{0}\n인물 가입</t>
+  </si>
+  <si>
+    <t>친구들이 리더에 위를​​ 차지있습니다.</t>
+  </si>
+  <si>
+    <t>按\n{0}\n要加入</t>
+  </si>
+  <si>
+    <t>你的朋友是\n不是这个排行榜上的排名。</t>
+  </si>
+  <si>
+    <t>Err_ForceDisconnectedReselectionMessage</t>
+  </si>
+  <si>
+    <t>Err_PromptForDisconnectedMessage</t>
+  </si>
+  <si>
+    <t>Err_ForceCancelledReselectionMessage</t>
+  </si>
+  <si>
+    <t>Err_PromptForCancelledMessage</t>
+  </si>
+  <si>
+    <t>はい。新しいデバイスを選択します。</t>
+  </si>
+  <si>
+    <t>いいえ。デバイスなしで続けます。</t>
+  </si>
+  <si>
+    <t>Err_Ok</t>
+  </si>
+  <si>
+    <t>Err_YesSelectNewDevice</t>
+  </si>
+  <si>
+    <t>Err_NoContinueWithoutDevice</t>
+  </si>
+  <si>
+    <t>Err_ReselectStorageDevice</t>
+  </si>
+  <si>
+    <t>Err_StorageDeviceRequired</t>
+  </si>
+  <si>
+    <t>ストレージ機器を再選択しますか？</t>
+  </si>
+  <si>
+    <t>ストレージ機器が必要です</t>
+  </si>
+  <si>
+    <t>ストレージ機器が切断されました。続けるためにはストレージ機器が必要です。</t>
+  </si>
+  <si>
+    <t>ストレージ機器が切断されました。デバイスなしで続けられますが、保存することはできません。ストレージ機器を選択しますか？</t>
+  </si>
+  <si>
+    <t>ストレージ機器が選択されませんでした。続けるためにはストレージ機器が必要です。</t>
+  </si>
+  <si>
+    <t>デバイスが選択されませんでした。デバイスなしで続けられますが、保存することはできません。ストレージ機器を選択しますか？</t>
+  </si>
+  <si>
+    <t>Yes. Select new device.</t>
+  </si>
+  <si>
+    <t>No. Continue without device.</t>
+  </si>
+  <si>
+    <t>Reselect Storage Device?</t>
+  </si>
+  <si>
+    <t>Storage Device Required</t>
+  </si>
+  <si>
+    <t>The storage device was disconnected. A storage device is required to continue.</t>
+  </si>
+  <si>
+    <t>The storage device was disconnected. You can continue without a device, but you will not be able to save. Would you like to select a storage device?</t>
+  </si>
+  <si>
+    <t>No storage device was selected. A storage device is required to continue.</t>
+  </si>
+  <si>
+    <t>No storage device was selected. You can continue without a device, but you will not be able to save. Would you like to select a storage device?</t>
+  </si>
+  <si>
+    <t>Ja, neues Speichergerät auswählen.</t>
+  </si>
+  <si>
+    <t>Nein, ohne Speichergerät fortsetzen.</t>
+  </si>
+  <si>
+    <t>Neues Speichergerät auswählen?</t>
+  </si>
+  <si>
+    <t>Ein Speichergerät wird benötigt</t>
+  </si>
+  <si>
+    <t>Das Speichergerät wurde entfernt. Ein Speichergerät wird benötigt um fortzusetzen.</t>
+  </si>
+  <si>
+    <t>Das Speichergerät wurde entfernt. Du kannst ohne Speichergerät fortfahren, kannst dann aber nicht speichern. Willst du ein Speichergerät auswählen?</t>
+  </si>
+  <si>
+    <t>Es wurde kein Speichergerät ausgewählt. Ein Speichergerät wird benötigt um fortzusetzen.</t>
+  </si>
+  <si>
+    <t>Es wurde kein Speichergerät ausgewählt. Du kannst ohne Speichergerät fortfahren, kannst dann aber nicht speichern. Willst du ein Speichergerät auswählen?</t>
+  </si>
+  <si>
+    <t>Oui. Sélectionner un nouveau périphérique.</t>
+  </si>
+  <si>
+    <t>Non. Continuer sans le périphérique.</t>
+  </si>
+  <si>
+    <t>Sélectionner un nouveau périphérique de stockage?</t>
+  </si>
+  <si>
+    <t>Périphérique de stockage requis.</t>
+  </si>
+  <si>
+    <t>Le périphérique de stockage a été déconnecté. Un périphérique de stockage est nécessaire pour continuer.</t>
+  </si>
+  <si>
+    <t>Le périphérique de stockage a été déconnecté. Vous pouvez continuer sans périphérique, mais vous ne pourrez pas sauvegarder. Voulez vous sélectionner un périphérique de stockage?</t>
+  </si>
+  <si>
+    <t>Aucun périphérique de stockage sélectionné. Un périphérique de stockage est nécessaire pour continuer.</t>
+  </si>
+  <si>
+    <t>Aucun périphérique de stockage sélectionné. Vous pouvez continuer sans périphérique, mais vous ne pourrez pas sauvegarder. Voulez vous sélectionner un périphérique de stockage?</t>
+  </si>
+  <si>
+    <t>Sì, seleziona un nuovo supporto.</t>
+  </si>
+  <si>
+    <t>Non è stato scelto alcun supporto di memorizzazione. Puoi anche continuare senza, ma non sarà possibile salvere i progressi. Vuoi selezionare un supporto di memorizzazione?</t>
+  </si>
+  <si>
+    <t>Il supporto di memorizzazione è stato scollegato. Puoi anche continuare senza, ma non sarà possibile salvere i progressi. Vuoi selezionare un supporto di memorizzazione?</t>
+  </si>
+  <si>
+    <t>Riselezionare il supporto di memorizzazione?</t>
+  </si>
+  <si>
+    <t>Il Supporto di Memorizzazione è necessario</t>
+  </si>
+  <si>
+    <t>No, continua sensa supporto.</t>
+  </si>
+  <si>
+    <t>Il supporto di memorizzazione è stato scollegato. È necessario un supporto per continuare.</t>
+  </si>
+  <si>
+    <t>Nessuna supporto di memorizzazione selezionato. È necessario selezionare un supporto per continuare.</t>
+  </si>
+  <si>
+    <t>Sí. Elegir nuevo dispositivo.</t>
+  </si>
+  <si>
+    <t>No. Continuar sin un dispositivo.</t>
+  </si>
+  <si>
+    <t>Volver a elegir Dispositivo de Almacenamiento?</t>
+  </si>
+  <si>
+    <t>Dispositivo de Almacenamiento Requerido</t>
+  </si>
+  <si>
+    <t>El dispositivo de almacenamiento se ha desconectado. Se requiere un dispositivo de almacenamiento para continuar.</t>
+  </si>
+  <si>
+    <t>El dispositivo de almacenamiento se ha desconectado. Puedes continuar sin un dispositivo, pero no podrás grabar. ¿Deseas elegir un dispositivo de almacenamiento?</t>
+  </si>
+  <si>
+    <t>No se ha seleccionado el dispositivo de almacenamiento. Se requiere un dispositivo de almacenamiento para continuar.</t>
+  </si>
+  <si>
+    <t>No se ha seleccionado el dispositivo de almacenamiento. Puedes continuar sin un dispositivo, pero no podrás grabar. ¿Deseas elegir un dispositivo de almacenamiento?</t>
+  </si>
+  <si>
+    <t>Dispositivo de armazenamento necessário</t>
+  </si>
+  <si>
+    <t>Sim. Selecione novo dispositivo.</t>
+  </si>
+  <si>
+    <t>Não. Continuar sem dispositivo.</t>
+  </si>
+  <si>
+    <t>Selecione novamente dispositivo de armazenamento?</t>
+  </si>
+  <si>
+    <t>O dispositivo de armazenamento foi desligado. Um dispositivo de armazenagem é necessária para continuar.</t>
+  </si>
+  <si>
+    <t>O dispositivo de armazenamento foi desligado. Você pode continuar sem um dispositivo, mas você não será capaz de salvar. Gostaria de selecionar um dispositivo de armazenamento?</t>
+  </si>
+  <si>
+    <t>Nenhum dispositivo de armazenamento foi selecionado. Um dispositivo de armazenagem é necessária para continuar.</t>
+  </si>
+  <si>
+    <t>Nenhum dispositivo de armazenamento foi selecionado. Você pode continuar sem um dispositivo, mas você não será capaz de salvar. Gostaria de selecionar um dispositivo de armazenamento?</t>
+  </si>
+  <si>
+    <t>Punteggio amici</t>
+  </si>
+  <si>
+    <t>Punteggi migliori</t>
+  </si>
+  <si>
+    <t>Il mio punteggio</t>
+  </si>
+  <si>
+    <t>Ordina per livello</t>
+  </si>
+  <si>
+    <t>Ordina per punteggio</t>
+  </si>
+  <si>
+    <t>Non sei ancora classificato su questa leaderboard.</t>
+  </si>
+  <si>
+    <t>I tuoi amici non sono ancora classificati su questa leaderboard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcade, totale. </t>
+  </si>
+  <si>
+    <t>Seleziona</t>
+  </si>
+  <si>
+    <t>Accedi?</t>
+  </si>
+  <si>
+    <t>Capitolo (0)</t>
+  </si>
+  <si>
+    <t>Capitolo 1, Il mare</t>
+  </si>
+  <si>
+    <t>Capitolo 2, Le colline</t>
+  </si>
+  <si>
+    <t>Capitolo 3, La foresta</t>
+  </si>
+  <si>
+    <t>Capitolo 4, Le nuvole</t>
+  </si>
+  <si>
+    <t>Capitolo 5, La grotta</t>
+  </si>
+  <si>
+    <t>Capitolo 6, Il castello</t>
+  </si>
+  <si>
+    <t>Livello Giocatore</t>
+  </si>
+  <si>
+    <t>Necessario</t>
+  </si>
+  <si>
+    <t>Sblocca Gioco Intero</t>
+  </si>
+  <si>
+    <t>Vedi Profilo</t>
+  </si>
+  <si>
+    <t>Options_Xbox</t>
+  </si>
+  <si>
+    <t>Help &amp; Options</t>
+  </si>
+  <si>
+    <t>遊び方 &amp; オプション</t>
+  </si>
+  <si>
+    <t>Hilfe und Optionen</t>
+  </si>
+  <si>
+    <t>Ajuda e Opções</t>
+  </si>
+  <si>
+    <t>Guida e opzioni</t>
+  </si>
+  <si>
+    <t>Aide et options</t>
+  </si>
+  <si>
+    <t>Ayuda y opciones</t>
+  </si>
+  <si>
+    <t>Справка и параметры</t>
+  </si>
+  <si>
+    <t>도움말 및 옵션</t>
+  </si>
+  <si>
+    <t>帮助和选项</t>
+  </si>
+  <si>
+    <t>クレジット</t>
+  </si>
+  <si>
+    <t>Mitwirkende</t>
+  </si>
+  <si>
+    <t>Riconoscimenti</t>
+  </si>
+  <si>
+    <t>Титры</t>
+  </si>
+  <si>
+    <t>제작진</t>
+  </si>
+  <si>
+    <t>制作团队</t>
+  </si>
+  <si>
+    <t>UpSell_SaveLoad</t>
+  </si>
+  <si>
+    <t>Saving and loading is only available in the full game. Would you like to unlock the full Cloudberry Kingdom?</t>
+  </si>
+  <si>
+    <t>Err_MustBeSignedIn</t>
+  </si>
+  <si>
+    <t>You need to be signed into Xbox LIVE to access Xbox LIVE game play features.</t>
+  </si>
+  <si>
+    <t>Err_MustBeSignedInToPlay</t>
+  </si>
+  <si>
+    <t>Err_MustBeSignedIn_Header</t>
+  </si>
+  <si>
+    <t>You need to be signed into Xbox LIVE to play XBLA titles.</t>
+  </si>
+  <si>
+    <t>日本語</t>
+  </si>
+  <si>
+    <t>Err_MustBeSignedInToLive</t>
+  </si>
+  <si>
+    <t>Err_MustBeSignedInToLiveToPlay</t>
+  </si>
+  <si>
+    <t>Xbox Live Account Needed</t>
+  </si>
+  <si>
+    <t>Err_MustBeSignedInToLive_Header</t>
+  </si>
+  <si>
+    <t>You must be signed in to access this feature.</t>
+  </si>
+  <si>
+    <t>You must be be signed in to play.</t>
+  </si>
+  <si>
+    <t>Sign In Required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10479,8 +10782,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10690,8 +11005,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -10824,6 +11145,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3044">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13871,7 +14207,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -14010,6 +14346,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3044">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -17354,15 +17694,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K357"/>
+  <dimension ref="A1:K377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A366" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C380" sqref="C380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" style="13" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.109375" customWidth="1"/>
     <col min="4" max="4" width="31" style="51" customWidth="1"/>
@@ -17377,37 +17717,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="13" customFormat="1">
       <c r="A1" s="13" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>2611</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="G1" s="14" t="s">
         <v>2612</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="H1" s="39" t="s">
         <v>2613</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="I1" s="39" t="s">
         <v>2614</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>2615</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="K1" s="14" t="s">
         <v>2616</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>2617</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>2618</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>2619</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="35" customFormat="1">
@@ -17417,32 +17757,32 @@
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="77" t="s">
+        <v>3513</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>2597</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="F2" s="40" t="s">
         <v>2598</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="G2" s="44" t="s">
         <v>2599</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="H2" s="45" t="s">
         <v>2600</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="I2" s="46" t="s">
         <v>2601</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="J2" s="36" t="s">
         <v>2602</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="K2" s="36" t="s">
         <v>2603</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>2604</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>2605</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -17456,7 +17796,7 @@
         <v>1142</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>2960</v>
+        <v>2934</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>1440</v>
@@ -17465,10 +17805,10 @@
         <v>1001</v>
       </c>
       <c r="G3" t="s">
-        <v>3217</v>
+        <v>3189</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>3358</v>
+        <v>3330</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>616</v>
@@ -17491,19 +17831,19 @@
         <v>1143</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>2959</v>
+        <v>2933</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>1441</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>3085</v>
+        <v>3059</v>
       </c>
       <c r="G4" t="s">
-        <v>3218</v>
+        <v>3190</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>3359</v>
+        <v>3331</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>617</v>
@@ -17526,7 +17866,7 @@
         <v>1144</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2743</v>
+        <v>2735</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>1442</v>
@@ -17561,7 +17901,7 @@
         <v>1145</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2744</v>
+        <v>2736</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>1443</v>
@@ -17596,7 +17936,7 @@
         <v>1146</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2745</v>
+        <v>2737</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>5</v>
@@ -17605,7 +17945,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>3219</v>
+        <v>3191</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>877</v>
@@ -17631,7 +17971,7 @@
         <v>1147</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>2718</v>
+        <v>2711</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>1447</v>
@@ -17701,19 +18041,19 @@
         <v>1149</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>2961</v>
+        <v>2935</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>3025</v>
+        <v>2999</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>3086</v>
+        <v>3060</v>
       </c>
       <c r="G10" t="s">
-        <v>3220</v>
+        <v>3192</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>3360</v>
+        <v>3332</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>623</v>
@@ -17841,16 +18181,16 @@
         <v>1153</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>2746</v>
+        <v>2738</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>1448</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>3087</v>
+        <v>3061</v>
       </c>
       <c r="G14" t="s">
-        <v>3221</v>
+        <v>3193</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>358</v>
@@ -17876,13 +18216,13 @@
         <v>1154</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>2747</v>
+        <v>2739</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>1449</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>3088</v>
+        <v>3062</v>
       </c>
       <c r="G15" t="s">
         <v>605</v>
@@ -17911,7 +18251,7 @@
         <v>1155</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>2719</v>
+        <v>2712</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>360</v>
@@ -17946,19 +18286,19 @@
         <v>1156</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2962</v>
+        <v>2936</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>3026</v>
+        <v>3000</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>3089</v>
+        <v>3063</v>
       </c>
       <c r="G17" t="s">
-        <v>3222</v>
+        <v>3194</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>3026</v>
+        <v>3000</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>630</v>
@@ -18016,19 +18356,19 @@
         <v>1158</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2748</v>
+        <v>2740</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>3027</v>
+        <v>3001</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>3090</v>
+        <v>3064</v>
       </c>
       <c r="G19" t="s">
-        <v>3223</v>
+        <v>3195</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>3361</v>
+        <v>3333</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>632</v>
@@ -18054,13 +18394,13 @@
         <v>236</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>3028</v>
+        <v>3002</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>3091</v>
+        <v>3065</v>
       </c>
       <c r="G20" t="s">
-        <v>3224</v>
+        <v>3196</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>878</v>
@@ -18156,16 +18496,16 @@
         <v>1162</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>2749</v>
+        <v>2741</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>1453</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>3092</v>
+        <v>3066</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>3225</v>
+        <v>3197</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>362</v>
@@ -18185,25 +18525,25 @@
         <v>1669</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>2897</v>
+        <v>2889</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>1163</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>2750</v>
+        <v>2742</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>2735</v>
+        <v>2728</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>3093</v>
+        <v>3067</v>
       </c>
       <c r="G24" t="s">
-        <v>3226</v>
+        <v>3198</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>3362</v>
+        <v>3334</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>637</v>
@@ -18302,7 +18642,7 @@
         <v>1456</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>3094</v>
+        <v>3068</v>
       </c>
       <c r="G27" t="s">
         <v>603</v>
@@ -18337,7 +18677,7 @@
         <v>1457</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>3095</v>
+        <v>3069</v>
       </c>
       <c r="G28" t="s">
         <v>604</v>
@@ -18366,19 +18706,19 @@
         <v>1168</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>2963</v>
+        <v>2937</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>3029</v>
+        <v>3003</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>3096</v>
+        <v>3070</v>
       </c>
       <c r="G29" t="s">
-        <v>3227</v>
+        <v>3199</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>3363</v>
+        <v>3335</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>642</v>
@@ -18401,19 +18741,19 @@
         <v>1169</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>2964</v>
+        <v>2938</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>3030</v>
+        <v>3004</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>3097</v>
+        <v>3071</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>3228</v>
+        <v>3200</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>3030</v>
+        <v>3004</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>643</v>
@@ -18436,19 +18776,19 @@
         <v>1170</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>2965</v>
+        <v>2939</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>3031</v>
+        <v>3005</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>3098</v>
+        <v>3072</v>
       </c>
       <c r="G31" t="s">
-        <v>3229</v>
+        <v>3201</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>3364</v>
+        <v>3336</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>644</v>
@@ -18471,19 +18811,19 @@
         <v>1171</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2751</v>
+        <v>2743</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>3032</v>
+        <v>3006</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>3099</v>
+        <v>3073</v>
       </c>
       <c r="G32" t="s">
-        <v>3230</v>
+        <v>3202</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>3365</v>
+        <v>3337</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>645</v>
@@ -18643,31 +18983,31 @@
         <v>1955</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>2606</v>
+        <v>3398</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>3419</v>
+        <v>3391</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>3033</v>
+        <v>3007</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>3416</v>
+        <v>3388</v>
       </c>
       <c r="G37" t="s">
-        <v>3417</v>
+        <v>3389</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>1917</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>2624</v>
+        <v>2621</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>2627</v>
+        <v>3399</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>2541</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -18675,13 +19015,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>1176</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2752</v>
+        <v>2744</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>1461</v>
@@ -18696,13 +19036,13 @@
         <v>30</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>2621</v>
+        <v>2618</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>2628</v>
+        <v>2624</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>2651</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -18760,7 +19100,7 @@
         <v>1013</v>
       </c>
       <c r="G40" t="s">
-        <v>3231</v>
+        <v>3203</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>370</v>
@@ -18923,7 +19263,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="D45" s="61" t="s">
         <v>253</v>
@@ -18935,7 +19275,7 @@
         <v>1032</v>
       </c>
       <c r="G45" t="s">
-        <v>3232</v>
+        <v>3204</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>373</v>
@@ -19171,7 +19511,7 @@
         <v>1189</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>2753</v>
+        <v>2745</v>
       </c>
       <c r="E52" s="42" t="s">
         <v>1473</v>
@@ -19410,13 +19750,13 @@
         <v>1675</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>2754</v>
+        <v>2746</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>1196</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>2754</v>
+        <v>2746</v>
       </c>
       <c r="E59" s="25" t="s">
         <v>1479</v>
@@ -19597,7 +19937,7 @@
         <v>1483</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>3100</v>
+        <v>3074</v>
       </c>
       <c r="G64" t="s">
         <v>541</v>
@@ -19632,13 +19972,13 @@
         <v>1484</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>3101</v>
+        <v>3075</v>
       </c>
       <c r="G65" t="s">
         <v>542</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>3366</v>
+        <v>3338</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>676</v>
@@ -19676,7 +20016,7 @@
         <v>543</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="J66" s="13" t="s">
         <v>2084</v>
@@ -19702,7 +20042,7 @@
         <v>1485</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>3102</v>
+        <v>3076</v>
       </c>
       <c r="G67" t="s">
         <v>544</v>
@@ -19772,7 +20112,7 @@
         <v>1487</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>3103</v>
+        <v>3077</v>
       </c>
       <c r="G69" t="s">
         <v>545</v>
@@ -19807,7 +20147,7 @@
         <v>1488</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>3104</v>
+        <v>3078</v>
       </c>
       <c r="G70" t="s">
         <v>548</v>
@@ -19836,13 +20176,13 @@
         <v>1208</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>2755</v>
+        <v>2747</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>1489</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>3105</v>
+        <v>3079</v>
       </c>
       <c r="G71" t="s">
         <v>547</v>
@@ -19874,7 +20214,7 @@
         <v>273</v>
       </c>
       <c r="E72" s="60" t="s">
-        <v>2824</v>
+        <v>2816</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>62</v>
@@ -19883,7 +20223,7 @@
         <v>546</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>3367</v>
+        <v>3339</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>682</v>
@@ -19906,7 +20246,7 @@
         <v>1210</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>2756</v>
+        <v>2748</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>1490</v>
@@ -19915,7 +20255,7 @@
         <v>63</v>
       </c>
       <c r="G73" t="s">
-        <v>3233</v>
+        <v>3205</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>63</v>
@@ -20011,13 +20351,13 @@
         <v>1213</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>2757</v>
+        <v>2749</v>
       </c>
       <c r="E76" s="41" t="s">
         <v>66</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>3106</v>
+        <v>3080</v>
       </c>
       <c r="G76" t="s">
         <v>550</v>
@@ -20122,13 +20462,13 @@
         <v>1493</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>3107</v>
+        <v>3081</v>
       </c>
       <c r="G79" t="s">
         <v>552</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>3368</v>
+        <v>3340</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>689</v>
@@ -20230,19 +20570,19 @@
         <v>1042</v>
       </c>
       <c r="G82" t="s">
-        <v>3234</v>
+        <v>3206</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>555</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="J82" s="13" t="s">
         <v>2039</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -20262,16 +20602,16 @@
         <v>1497</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>3108</v>
+        <v>3082</v>
       </c>
       <c r="G83" t="s">
-        <v>3235</v>
+        <v>3207</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>3369</v>
+        <v>3341</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="J83" s="13" t="s">
         <v>2112</v>
@@ -20291,7 +20631,7 @@
         <v>1221</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>2758</v>
+        <v>2750</v>
       </c>
       <c r="E84" s="29" t="s">
         <v>1498</v>
@@ -20312,7 +20652,7 @@
         <v>2513</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -20347,7 +20687,7 @@
         <v>2516</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -20402,13 +20742,13 @@
         <v>1500</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>3109</v>
+        <v>3083</v>
       </c>
       <c r="G87" t="s">
         <v>614</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>3370</v>
+        <v>3342</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>1891</v>
@@ -20446,7 +20786,7 @@
         <v>1684</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="J88" s="13" t="s">
         <v>2117</v>
@@ -20507,7 +20847,7 @@
         <v>1502</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>3110</v>
+        <v>3084</v>
       </c>
       <c r="G90" t="s">
         <v>1923</v>
@@ -20516,7 +20856,7 @@
         <v>1921</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="J90" s="13" t="s">
         <v>2517</v>
@@ -20542,7 +20882,7 @@
         <v>1503</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>3111</v>
+        <v>3085</v>
       </c>
       <c r="G91" t="s">
         <v>558</v>
@@ -20583,10 +20923,10 @@
         <v>615</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>3371</v>
+        <v>3343</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="J92" s="13" t="s">
         <v>2123</v>
@@ -20612,13 +20952,13 @@
         <v>1505</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>3112</v>
+        <v>3086</v>
       </c>
       <c r="G93" t="s">
         <v>930</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>3372</v>
+        <v>3344</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>693</v>
@@ -20647,7 +20987,7 @@
         <v>1506</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>3113</v>
+        <v>3087</v>
       </c>
       <c r="G94" t="s">
         <v>931</v>
@@ -20676,22 +21016,22 @@
         <v>1232</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>2720</v>
+        <v>2713</v>
       </c>
       <c r="E95" s="29" t="s">
         <v>1507</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>3114</v>
+        <v>3088</v>
       </c>
       <c r="G95" t="s">
         <v>559</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>3373</v>
+        <v>3345</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="J95" s="13" t="s">
         <v>2129</v>
@@ -20714,16 +21054,16 @@
         <v>290</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>3034</v>
+        <v>3008</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>3115</v>
+        <v>3089</v>
       </c>
       <c r="G96" t="s">
-        <v>3236</v>
+        <v>3208</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>3374</v>
+        <v>3346</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>694</v>
@@ -20752,7 +21092,7 @@
         <v>1508</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>3116</v>
+        <v>3090</v>
       </c>
       <c r="G97" t="s">
         <v>560</v>
@@ -20781,7 +21121,7 @@
         <v>1235</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>2759</v>
+        <v>2751</v>
       </c>
       <c r="E98" s="29" t="s">
         <v>292</v>
@@ -20822,13 +21162,13 @@
         <v>1509</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>3117</v>
+        <v>3091</v>
       </c>
       <c r="G99" t="s">
         <v>562</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>3375</v>
+        <v>3347</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>697</v>
@@ -20857,7 +21197,7 @@
         <v>1510</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>3118</v>
+        <v>3092</v>
       </c>
       <c r="G100" t="s">
         <v>563</v>
@@ -20930,7 +21270,7 @@
         <v>1048</v>
       </c>
       <c r="G102" t="s">
-        <v>3237</v>
+        <v>3209</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>404</v>
@@ -20956,7 +21296,7 @@
         <v>1240</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>2760</v>
+        <v>2752</v>
       </c>
       <c r="E103" s="29" t="s">
         <v>1511</v>
@@ -21105,13 +21445,13 @@
         <v>85</v>
       </c>
       <c r="G107" t="s">
-        <v>3238</v>
+        <v>3210</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>85</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>2623</v>
+        <v>2620</v>
       </c>
       <c r="J107" s="72" t="s">
         <v>2518</v>
@@ -21137,10 +21477,10 @@
         <v>1516</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>3119</v>
+        <v>3093</v>
       </c>
       <c r="G108" t="s">
-        <v>3239</v>
+        <v>3211</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>880</v>
@@ -21175,7 +21515,7 @@
         <v>1052</v>
       </c>
       <c r="G109" t="s">
-        <v>2875</v>
+        <v>2867</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>409</v>
@@ -21187,7 +21527,7 @@
         <v>2155</v>
       </c>
       <c r="K109" s="13" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -21219,7 +21559,7 @@
         <v>707</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>3240</v>
+        <v>3212</v>
       </c>
       <c r="K110" s="13" t="s">
         <v>2156</v>
@@ -21306,7 +21646,7 @@
         <v>1250</v>
       </c>
       <c r="D113" s="61" t="s">
-        <v>2966</v>
+        <v>2940</v>
       </c>
       <c r="E113" s="29" t="s">
         <v>1521</v>
@@ -21341,7 +21681,7 @@
         <v>1251</v>
       </c>
       <c r="D114" s="53" t="s">
-        <v>2967</v>
+        <v>2941</v>
       </c>
       <c r="E114" s="41" t="s">
         <v>414</v>
@@ -21379,7 +21719,7 @@
         <v>93</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>3035</v>
+        <v>3009</v>
       </c>
       <c r="F115" s="13" t="s">
         <v>93</v>
@@ -21411,7 +21751,7 @@
         <v>1253</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>2968</v>
+        <v>2942</v>
       </c>
       <c r="E116" s="25" t="s">
         <v>416</v>
@@ -21496,7 +21836,7 @@
         <v>96</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="J118" s="13" t="s">
         <v>2171</v>
@@ -21586,16 +21926,16 @@
         <v>1257</v>
       </c>
       <c r="D121" s="61" t="s">
-        <v>2969</v>
+        <v>2943</v>
       </c>
       <c r="E121" s="29" t="s">
-        <v>2826</v>
+        <v>2818</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>3120</v>
+        <v>3094</v>
       </c>
       <c r="G121" t="s">
-        <v>3241</v>
+        <v>3213</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>420</v>
@@ -21627,10 +21967,10 @@
         <v>1524</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>3121</v>
+        <v>3095</v>
       </c>
       <c r="G122" t="s">
-        <v>3242</v>
+        <v>3214</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>421</v>
@@ -21764,7 +22104,7 @@
         <v>104</v>
       </c>
       <c r="E126" s="29" t="s">
-        <v>2825</v>
+        <v>2817</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>1062</v>
@@ -21831,7 +22171,7 @@
         <v>1264</v>
       </c>
       <c r="D128" s="61" t="s">
-        <v>2970</v>
+        <v>2944</v>
       </c>
       <c r="E128" s="41" t="s">
         <v>1526</v>
@@ -21866,7 +22206,7 @@
         <v>1265</v>
       </c>
       <c r="D129" s="61" t="s">
-        <v>2971</v>
+        <v>2945</v>
       </c>
       <c r="E129" s="29" t="s">
         <v>1527</v>
@@ -21930,7 +22270,7 @@
         <v>1701</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>2898</v>
+        <v>2890</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>1267</v>
@@ -21939,16 +22279,16 @@
         <v>304</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>3036</v>
+        <v>3010</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>3122</v>
+        <v>3096</v>
       </c>
       <c r="G131" t="s">
-        <v>3243</v>
+        <v>3215</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>3376</v>
+        <v>3348</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>726</v>
@@ -21965,25 +22305,25 @@
         <v>1702</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>2899</v>
+        <v>2891</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>1268</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>2761</v>
+        <v>2753</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>3037</v>
+        <v>3011</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>3123</v>
+        <v>3097</v>
       </c>
       <c r="G132" t="s">
-        <v>3244</v>
+        <v>3216</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>3377</v>
+        <v>3349</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>727</v>
@@ -22009,7 +22349,7 @@
         <v>305</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>3038</v>
+        <v>3012</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>1067</v>
@@ -22035,7 +22375,7 @@
         <v>1703</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>2900</v>
+        <v>2892</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>1270</v>
@@ -22044,13 +22384,13 @@
         <v>898</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>3039</v>
+        <v>3013</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>3124</v>
+        <v>3098</v>
       </c>
       <c r="G134" t="s">
-        <v>3245</v>
+        <v>3217</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>428</v>
@@ -22070,7 +22410,7 @@
         <v>1704</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>2901</v>
+        <v>2893</v>
       </c>
       <c r="C135" s="21" t="s">
         <v>1271</v>
@@ -22079,10 +22419,10 @@
         <v>306</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>3040</v>
+        <v>3014</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>3125</v>
+        <v>3099</v>
       </c>
       <c r="G135" t="s">
         <v>940</v>
@@ -22105,22 +22445,22 @@
         <v>1705</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>2902</v>
+        <v>2894</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>1272</v>
       </c>
       <c r="D136" s="61" t="s">
-        <v>3418</v>
+        <v>3390</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>3041</v>
+        <v>3015</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>3126</v>
+        <v>3100</v>
       </c>
       <c r="G136" t="s">
-        <v>3246</v>
+        <v>3218</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>429</v>
@@ -22146,7 +22486,7 @@
         <v>1273</v>
       </c>
       <c r="D137" s="61" t="s">
-        <v>2721</v>
+        <v>2714</v>
       </c>
       <c r="E137" s="29" t="s">
         <v>430</v>
@@ -22210,25 +22550,25 @@
         <v>1706</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>2903</v>
+        <v>2895</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>1275</v>
       </c>
       <c r="D139" s="61" t="s">
-        <v>2717</v>
+        <v>2710</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>3042</v>
+        <v>3016</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>3127</v>
+        <v>3101</v>
       </c>
       <c r="G139" t="s">
-        <v>3247</v>
+        <v>3219</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>3378</v>
+        <v>3350</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>734</v>
@@ -22251,7 +22591,7 @@
         <v>1276</v>
       </c>
       <c r="D140" s="61" t="s">
-        <v>2722</v>
+        <v>2715</v>
       </c>
       <c r="E140" s="29" t="s">
         <v>1530</v>
@@ -22260,7 +22600,7 @@
         <v>1070</v>
       </c>
       <c r="G140" t="s">
-        <v>3248</v>
+        <v>3220</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>432</v>
@@ -22280,28 +22620,28 @@
         <v>1707</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>2904</v>
+        <v>2896</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>1277</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>2762</v>
+        <v>2754</v>
       </c>
       <c r="E141" s="28" t="s">
         <v>1531</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>3128</v>
+        <v>3102</v>
       </c>
       <c r="G141" t="s">
-        <v>3249</v>
+        <v>3221</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>433</v>
       </c>
       <c r="I141" t="s">
-        <v>2853</v>
+        <v>2845</v>
       </c>
       <c r="J141" s="13" t="s">
         <v>2216</v>
@@ -22327,13 +22667,13 @@
         <v>1532</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>3129</v>
+        <v>3103</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>3250</v>
+        <v>3222</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>3379</v>
+        <v>3351</v>
       </c>
       <c r="I142" s="4" t="s">
         <v>736</v>
@@ -22362,7 +22702,7 @@
         <v>1533</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>3130</v>
+        <v>3104</v>
       </c>
       <c r="G143" t="s">
         <v>580</v>
@@ -22385,25 +22725,25 @@
         <v>1708</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>2905</v>
+        <v>2897</v>
       </c>
       <c r="C144" s="19" t="s">
         <v>1280</v>
       </c>
       <c r="D144" s="72" t="s">
-        <v>2796</v>
+        <v>2788</v>
       </c>
       <c r="E144" s="29" t="s">
         <v>1534</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>3131</v>
+        <v>3105</v>
       </c>
       <c r="G144" t="s">
         <v>581</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>3380</v>
+        <v>3352</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>738</v>
@@ -22496,10 +22836,10 @@
         <v>1283</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>2763</v>
+        <v>2755</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>3043</v>
+        <v>3017</v>
       </c>
       <c r="F147" s="11" t="s">
         <v>343</v>
@@ -22560,22 +22900,22 @@
         <v>1709</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>2906</v>
+        <v>2898</v>
       </c>
       <c r="C149" s="19" t="s">
         <v>1285</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>2764</v>
+        <v>2756</v>
       </c>
       <c r="E149" s="29" t="s">
         <v>1536</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>3132</v>
+        <v>3106</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>3251</v>
+        <v>3223</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>439</v>
@@ -22607,10 +22947,10 @@
         <v>1537</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>3133</v>
+        <v>3107</v>
       </c>
       <c r="G150" t="s">
-        <v>3252</v>
+        <v>3224</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>440</v>
@@ -22665,22 +23005,22 @@
         <v>1710</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>2890</v>
+        <v>2882</v>
       </c>
       <c r="C152" s="19" t="s">
         <v>1288</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>2765</v>
+        <v>2757</v>
       </c>
       <c r="E152" s="25" t="s">
         <v>1539</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>3134</v>
+        <v>3108</v>
       </c>
       <c r="G152" t="s">
-        <v>3253</v>
+        <v>3225</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>442</v>
@@ -22770,22 +23110,22 @@
         <v>1711</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>2891</v>
+        <v>2883</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>1291</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>2766</v>
+        <v>2758</v>
       </c>
       <c r="E155" s="25" t="s">
         <v>1539</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>3135</v>
+        <v>3109</v>
       </c>
       <c r="G155" t="s">
-        <v>3254</v>
+        <v>3226</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>445</v>
@@ -22852,10 +23192,10 @@
         <v>1542</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>3136</v>
+        <v>3110</v>
       </c>
       <c r="G157" t="s">
-        <v>3255</v>
+        <v>3227</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>447</v>
@@ -22887,10 +23227,10 @@
         <v>1543</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>3137</v>
+        <v>3111</v>
       </c>
       <c r="G158" t="s">
-        <v>3256</v>
+        <v>3228</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>448</v>
@@ -22922,13 +23262,13 @@
         <v>1544</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>3138</v>
+        <v>3112</v>
       </c>
       <c r="G159" t="s">
-        <v>3257</v>
+        <v>3229</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>3381</v>
+        <v>3353</v>
       </c>
       <c r="I159" s="3" t="s">
         <v>753</v>
@@ -22951,19 +23291,19 @@
         <v>1296</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>2767</v>
+        <v>2759</v>
       </c>
       <c r="E160" s="25" t="s">
         <v>1545</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>3139</v>
+        <v>3113</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>3258</v>
+        <v>3230</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>3382</v>
+        <v>3354</v>
       </c>
       <c r="I160" s="4" t="s">
         <v>754</v>
@@ -22986,19 +23326,19 @@
         <v>1297</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>2768</v>
+        <v>2760</v>
       </c>
       <c r="E161" s="25" t="s">
         <v>1546</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>3140</v>
+        <v>3114</v>
       </c>
       <c r="G161" t="s">
-        <v>3259</v>
+        <v>3231</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>3383</v>
+        <v>3355</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>755</v>
@@ -23021,7 +23361,7 @@
         <v>1298</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>2769</v>
+        <v>2761</v>
       </c>
       <c r="E162" s="25" t="s">
         <v>1547</v>
@@ -23042,7 +23382,7 @@
         <v>2519</v>
       </c>
       <c r="K162" s="13" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -23056,7 +23396,7 @@
         <v>1299</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>2770</v>
+        <v>2762</v>
       </c>
       <c r="E163" s="25" t="s">
         <v>1548</v>
@@ -23077,7 +23417,7 @@
         <v>2520</v>
       </c>
       <c r="K163" s="13" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -23085,25 +23425,25 @@
         <v>1719</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>2889</v>
+        <v>2881</v>
       </c>
       <c r="C164" s="19" t="s">
         <v>1300</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>2771</v>
+        <v>2763</v>
       </c>
       <c r="E164" s="27" t="s">
         <v>1549</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>3141</v>
+        <v>3115</v>
       </c>
       <c r="G164" t="s">
         <v>948</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>3384</v>
+        <v>3356</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>758</v>
@@ -23126,19 +23466,19 @@
         <v>1301</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>2772</v>
+        <v>2764</v>
       </c>
       <c r="E165" s="27" t="s">
         <v>1550</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>3142</v>
+        <v>3116</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>3260</v>
+        <v>3232</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>3385</v>
+        <v>3357</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>759</v>
@@ -23155,7 +23495,7 @@
         <v>1721</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>2892</v>
+        <v>2884</v>
       </c>
       <c r="C166" s="19" t="s">
         <v>1302</v>
@@ -23167,13 +23507,13 @@
         <v>1551</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>3143</v>
+        <v>3117</v>
       </c>
       <c r="G166" t="s">
         <v>949</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>3386</v>
+        <v>3358</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>760</v>
@@ -23211,7 +23551,7 @@
         <v>408</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="J167" s="13" t="s">
         <v>2151</v>
@@ -23266,16 +23606,16 @@
         <v>1304</v>
       </c>
       <c r="D169" s="61" t="s">
-        <v>2780</v>
+        <v>2772</v>
       </c>
       <c r="E169" s="29" t="s">
         <v>1554</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>3144</v>
+        <v>3118</v>
       </c>
       <c r="G169" t="s">
-        <v>3261</v>
+        <v>3233</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>451</v>
@@ -23307,7 +23647,7 @@
         <v>1555</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>3145</v>
+        <v>3119</v>
       </c>
       <c r="G170" t="s">
         <v>950</v>
@@ -23345,13 +23685,13 @@
         <v>135</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>3262</v>
+        <v>3234</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>135</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="J171" s="13" t="s">
         <v>2263</v>
@@ -23412,13 +23752,13 @@
         <v>1558</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>3146</v>
+        <v>3120</v>
       </c>
       <c r="G173" t="s">
-        <v>3263</v>
+        <v>3235</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>3387</v>
+        <v>3359</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>765</v>
@@ -23441,10 +23781,10 @@
         <v>1309</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>2773</v>
+        <v>2765</v>
       </c>
       <c r="E174" s="29" t="s">
-        <v>3044</v>
+        <v>3018</v>
       </c>
       <c r="F174" s="11" t="s">
         <v>1079</v>
@@ -23476,16 +23816,16 @@
         <v>1310</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>2774</v>
+        <v>2766</v>
       </c>
       <c r="E175" s="41" t="s">
         <v>1559</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>3147</v>
+        <v>3121</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>3264</v>
+        <v>3236</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>454</v>
@@ -23517,7 +23857,7 @@
         <v>1560</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>3148</v>
+        <v>3122</v>
       </c>
       <c r="G176" t="s">
         <v>611</v>
@@ -23546,19 +23886,19 @@
         <v>1312</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>2775</v>
+        <v>2767</v>
       </c>
       <c r="E177" s="29" t="s">
         <v>1561</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>3149</v>
+        <v>3123</v>
       </c>
       <c r="G177" t="s">
-        <v>3265</v>
+        <v>3237</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>3388</v>
+        <v>3360</v>
       </c>
       <c r="I177" s="4" t="s">
         <v>1858</v>
@@ -23578,7 +23918,7 @@
         <v>142</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="D178" s="58" t="s">
         <v>900</v>
@@ -23590,7 +23930,7 @@
         <v>142</v>
       </c>
       <c r="G178" t="s">
-        <v>3266</v>
+        <v>3238</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>142</v>
@@ -23616,16 +23956,16 @@
         <v>1313</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>2776</v>
+        <v>2768</v>
       </c>
       <c r="E179" s="30" t="s">
         <v>1563</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>3150</v>
+        <v>3124</v>
       </c>
       <c r="G179" t="s">
-        <v>3267</v>
+        <v>3239</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>456</v>
@@ -23686,7 +24026,7 @@
         <v>1315</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>2778</v>
+        <v>2770</v>
       </c>
       <c r="E181" s="29" t="s">
         <v>1564</v>
@@ -23707,7 +24047,7 @@
         <v>2521</v>
       </c>
       <c r="K181" s="13" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -23715,19 +24055,19 @@
         <v>1934</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="C182" s="19" t="s">
         <v>1316</v>
       </c>
       <c r="D182" s="49" t="s">
-        <v>2777</v>
+        <v>2769</v>
       </c>
       <c r="E182" s="29" t="s">
         <v>1565</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>3151</v>
+        <v>3125</v>
       </c>
       <c r="G182" t="s">
         <v>952</v>
@@ -23739,10 +24079,10 @@
         <v>1853</v>
       </c>
       <c r="J182" s="13" t="s">
-        <v>2629</v>
+        <v>2625</v>
       </c>
       <c r="K182" s="13" t="s">
-        <v>2652</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -23750,7 +24090,7 @@
         <v>1935</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="C183" s="19" t="s">
         <v>1317</v>
@@ -23762,10 +24102,10 @@
         <v>1566</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>3152</v>
+        <v>3126</v>
       </c>
       <c r="G183" t="s">
-        <v>3268</v>
+        <v>3240</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>454</v>
@@ -23774,18 +24114,18 @@
         <v>1856</v>
       </c>
       <c r="J183" s="13" t="s">
-        <v>2630</v>
+        <v>2626</v>
       </c>
       <c r="K183" s="13" t="s">
-        <v>2653</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="13" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="C184" s="19" t="s">
         <v>1318</v>
@@ -23797,10 +24137,10 @@
         <v>1567</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>3153</v>
+        <v>3127</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>3269</v>
+        <v>3241</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>883</v>
@@ -23809,10 +24149,10 @@
         <v>1855</v>
       </c>
       <c r="J184" s="13" t="s">
-        <v>2631</v>
+        <v>2627</v>
       </c>
       <c r="K184" s="13" t="s">
-        <v>2654</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -23820,22 +24160,22 @@
         <v>1936</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="C185" s="19" t="s">
         <v>1319</v>
       </c>
       <c r="D185" s="49" t="s">
-        <v>2779</v>
+        <v>2771</v>
       </c>
       <c r="E185" s="29" t="s">
         <v>1568</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>3154</v>
+        <v>3128</v>
       </c>
       <c r="G185" t="s">
-        <v>3270</v>
+        <v>3242</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>884</v>
@@ -23844,10 +24184,10 @@
         <v>1862</v>
       </c>
       <c r="J185" s="13" t="s">
-        <v>2632</v>
+        <v>2628</v>
       </c>
       <c r="K185" s="13" t="s">
-        <v>2655</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -23855,7 +24195,7 @@
         <v>1937</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="C186" s="19" t="s">
         <v>1320</v>
@@ -23867,10 +24207,10 @@
         <v>1569</v>
       </c>
       <c r="F186" s="11" t="s">
-        <v>3155</v>
+        <v>3129</v>
       </c>
       <c r="G186" t="s">
-        <v>3271</v>
+        <v>3243</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>885</v>
@@ -23879,10 +24219,10 @@
         <v>1857</v>
       </c>
       <c r="J186" s="13" t="s">
-        <v>2633</v>
+        <v>2629</v>
       </c>
       <c r="K186" s="13" t="s">
-        <v>2656</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -23890,13 +24230,13 @@
         <v>1938</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C187" s="19" t="s">
         <v>1321</v>
       </c>
       <c r="D187" s="54" t="s">
-        <v>2781</v>
+        <v>2773</v>
       </c>
       <c r="E187" s="30" t="s">
         <v>1570</v>
@@ -23905,7 +24245,7 @@
         <v>1080</v>
       </c>
       <c r="G187" t="s">
-        <v>3272</v>
+        <v>3244</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>886</v>
@@ -23914,10 +24254,10 @@
         <v>1860</v>
       </c>
       <c r="J187" s="13" t="s">
-        <v>2634</v>
+        <v>2630</v>
       </c>
       <c r="K187" s="13" t="s">
-        <v>2657</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -23925,22 +24265,22 @@
         <v>1939</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="C188" s="19" t="s">
         <v>1322</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>2782</v>
+        <v>2774</v>
       </c>
       <c r="E188" s="29" t="s">
         <v>1571</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>3156</v>
+        <v>3130</v>
       </c>
       <c r="G188" t="s">
-        <v>3273</v>
+        <v>3245</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>887</v>
@@ -23949,10 +24289,10 @@
         <v>1861</v>
       </c>
       <c r="J188" s="13" t="s">
-        <v>2635</v>
+        <v>2631</v>
       </c>
       <c r="K188" s="13" t="s">
-        <v>2658</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="15" thickBot="1">
@@ -23960,7 +24300,7 @@
         <v>1940</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="C189" s="19" t="s">
         <v>1323</v>
@@ -23972,7 +24312,7 @@
         <v>1572</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>3157</v>
+        <v>3131</v>
       </c>
       <c r="G189" t="s">
         <v>953</v>
@@ -23984,10 +24324,10 @@
         <v>1863</v>
       </c>
       <c r="J189" s="13" t="s">
-        <v>2636</v>
+        <v>2632</v>
       </c>
       <c r="K189" s="13" t="s">
-        <v>2659</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -24036,10 +24376,10 @@
         <v>1325</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>2783</v>
+        <v>2775</v>
       </c>
       <c r="E191" s="29" t="s">
-        <v>3045</v>
+        <v>3019</v>
       </c>
       <c r="F191" s="11" t="s">
         <v>1082</v>
@@ -24115,7 +24455,7 @@
         <v>1084</v>
       </c>
       <c r="G193" t="s">
-        <v>2887</v>
+        <v>2879</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>460</v>
@@ -24150,7 +24490,7 @@
         <v>1085</v>
       </c>
       <c r="G194" t="s">
-        <v>2888</v>
+        <v>2880</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>461</v>
@@ -24214,7 +24554,7 @@
         <v>330</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>3046</v>
+        <v>3020</v>
       </c>
       <c r="F196" s="16" t="s">
         <v>1087</v>
@@ -24246,13 +24586,13 @@
         <v>1331</v>
       </c>
       <c r="D197" s="61" t="s">
-        <v>2972</v>
+        <v>2946</v>
       </c>
       <c r="E197" s="29" t="s">
         <v>1576</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>3158</v>
+        <v>3132</v>
       </c>
       <c r="G197" t="s">
         <v>607</v>
@@ -24287,10 +24627,10 @@
         <v>1577</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>3159</v>
+        <v>3133</v>
       </c>
       <c r="G198" t="s">
-        <v>3274</v>
+        <v>3246</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>465</v>
@@ -24322,10 +24662,10 @@
         <v>1578</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>3160</v>
+        <v>3134</v>
       </c>
       <c r="G199" t="s">
-        <v>3275</v>
+        <v>3247</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>466</v>
@@ -24357,7 +24697,7 @@
         <v>1579</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>3161</v>
+        <v>3135</v>
       </c>
       <c r="G200" t="s">
         <v>608</v>
@@ -24386,7 +24726,7 @@
         <v>1335</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>2784</v>
+        <v>2776</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>1580</v>
@@ -24421,16 +24761,16 @@
         <v>1336</v>
       </c>
       <c r="D202" s="61" t="s">
-        <v>2973</v>
+        <v>2947</v>
       </c>
       <c r="E202" s="25" t="s">
         <v>1581</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>3162</v>
+        <v>3136</v>
       </c>
       <c r="G202" t="s">
-        <v>3276</v>
+        <v>3248</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>469</v>
@@ -24456,16 +24796,16 @@
         <v>1337</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>2785</v>
+        <v>2777</v>
       </c>
       <c r="E203" s="25" t="s">
         <v>1582</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>3163</v>
+        <v>3137</v>
       </c>
       <c r="G203" t="s">
-        <v>2876</v>
+        <v>2868</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>470</v>
@@ -24491,16 +24831,16 @@
         <v>1338</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>2786</v>
+        <v>2778</v>
       </c>
       <c r="E204" s="25" t="s">
         <v>1583</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>3164</v>
+        <v>3138</v>
       </c>
       <c r="G204" t="s">
-        <v>3277</v>
+        <v>3249</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>471</v>
@@ -24532,7 +24872,7 @@
         <v>1584</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>3165</v>
+        <v>3139</v>
       </c>
       <c r="G205" t="s">
         <v>161</v>
@@ -24561,16 +24901,16 @@
         <v>1340</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>2787</v>
+        <v>2779</v>
       </c>
       <c r="E206" s="25" t="s">
         <v>1585</v>
       </c>
       <c r="F206" s="11" t="s">
-        <v>3166</v>
+        <v>3140</v>
       </c>
       <c r="G206" t="s">
-        <v>3278</v>
+        <v>3250</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>473</v>
@@ -24596,7 +24936,7 @@
         <v>1341</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>2788</v>
+        <v>2780</v>
       </c>
       <c r="E207" s="25" t="s">
         <v>1586</v>
@@ -24605,7 +24945,7 @@
         <v>163</v>
       </c>
       <c r="G207" t="s">
-        <v>3279</v>
+        <v>3251</v>
       </c>
       <c r="H207" s="2" t="s">
         <v>474</v>
@@ -24631,10 +24971,10 @@
         <v>1342</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>2789</v>
+        <v>2781</v>
       </c>
       <c r="E208" s="25" t="s">
-        <v>2828</v>
+        <v>2820</v>
       </c>
       <c r="F208" s="11" t="s">
         <v>1088</v>
@@ -24701,7 +25041,7 @@
         <v>166</v>
       </c>
       <c r="D210" s="61" t="s">
-        <v>2974</v>
+        <v>2948</v>
       </c>
       <c r="E210" s="25" t="s">
         <v>1588</v>
@@ -24736,7 +25076,7 @@
         <v>167</v>
       </c>
       <c r="D211" s="61" t="s">
-        <v>2975</v>
+        <v>2949</v>
       </c>
       <c r="E211" s="42" t="s">
         <v>1589</v>
@@ -24771,7 +25111,7 @@
         <v>1344</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>2976</v>
+        <v>2950</v>
       </c>
       <c r="E212" s="25" t="s">
         <v>1590</v>
@@ -24780,10 +25120,10 @@
         <v>1092</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>3280</v>
+        <v>3252</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>3389</v>
+        <v>3361</v>
       </c>
       <c r="I212" s="2" t="s">
         <v>792</v>
@@ -24800,7 +25140,7 @@
         <v>1743</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>2893</v>
+        <v>2885</v>
       </c>
       <c r="C213" s="19" t="s">
         <v>1878</v>
@@ -24841,7 +25181,7 @@
         <v>1345</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>2977</v>
+        <v>2951</v>
       </c>
       <c r="E214" s="25" t="s">
         <v>1591</v>
@@ -24876,7 +25216,7 @@
         <v>1346</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>2790</v>
+        <v>2782</v>
       </c>
       <c r="E215" s="27" t="s">
         <v>1592</v>
@@ -24946,7 +25286,7 @@
         <v>1348</v>
       </c>
       <c r="D217" s="57" t="s">
-        <v>2723</v>
+        <v>2716</v>
       </c>
       <c r="E217" s="25" t="s">
         <v>1594</v>
@@ -25121,7 +25461,7 @@
         <v>1351</v>
       </c>
       <c r="D222" s="59" t="s">
-        <v>2874</v>
+        <v>2866</v>
       </c>
       <c r="E222" s="25" t="s">
         <v>1597</v>
@@ -25156,16 +25496,16 @@
         <v>1352</v>
       </c>
       <c r="D223" t="s">
-        <v>2978</v>
+        <v>2952</v>
       </c>
       <c r="E223" s="25" t="s">
         <v>1598</v>
       </c>
       <c r="F223" s="11" t="s">
-        <v>3167</v>
+        <v>3141</v>
       </c>
       <c r="G223" t="s">
-        <v>3281</v>
+        <v>3253</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>486</v>
@@ -25197,7 +25537,7 @@
         <v>1599</v>
       </c>
       <c r="F224" s="11" t="s">
-        <v>3168</v>
+        <v>3142</v>
       </c>
       <c r="G224" t="s">
         <v>963</v>
@@ -25220,22 +25560,22 @@
         <v>1753</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>2794</v>
+        <v>2786</v>
       </c>
       <c r="C225" s="23" t="s">
         <v>1354</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>2979</v>
+        <v>2953</v>
       </c>
       <c r="E225" s="25" t="s">
         <v>1600</v>
       </c>
       <c r="F225" s="11" t="s">
-        <v>3169</v>
+        <v>3143</v>
       </c>
       <c r="G225" t="s">
-        <v>3282</v>
+        <v>3254</v>
       </c>
       <c r="H225" s="2" t="s">
         <v>488</v>
@@ -25261,16 +25601,16 @@
         <v>1355</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>2980</v>
+        <v>2954</v>
       </c>
       <c r="E226" s="25" t="s">
         <v>1601</v>
       </c>
       <c r="F226" s="11" t="s">
-        <v>3170</v>
+        <v>3144</v>
       </c>
       <c r="G226" t="s">
-        <v>3283</v>
+        <v>3255</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>489</v>
@@ -25290,25 +25630,25 @@
         <v>1755</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>2894</v>
+        <v>2886</v>
       </c>
       <c r="C227" s="19" t="s">
         <v>1356</v>
       </c>
       <c r="D227" s="61" t="s">
-        <v>2981</v>
+        <v>2955</v>
       </c>
       <c r="E227" s="25" t="s">
         <v>1602</v>
       </c>
       <c r="F227" s="13" t="s">
-        <v>3171</v>
+        <v>3145</v>
       </c>
       <c r="G227" t="s">
-        <v>3284</v>
+        <v>3256</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>3390</v>
+        <v>3362</v>
       </c>
       <c r="I227" s="4" t="s">
         <v>178</v>
@@ -25325,25 +25665,25 @@
         <v>1756</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>2895</v>
+        <v>2887</v>
       </c>
       <c r="C228" s="19" t="s">
         <v>1357</v>
       </c>
       <c r="D228" s="61" t="s">
-        <v>2982</v>
+        <v>2956</v>
       </c>
       <c r="E228" s="25" t="s">
         <v>1603</v>
       </c>
       <c r="F228" s="11" t="s">
-        <v>3172</v>
+        <v>3146</v>
       </c>
       <c r="G228" t="s">
-        <v>3285</v>
+        <v>3257</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="I228" s="4" t="s">
         <v>179</v>
@@ -25366,16 +25706,16 @@
         <v>1880</v>
       </c>
       <c r="D229" s="61" t="s">
-        <v>2983</v>
+        <v>2957</v>
       </c>
       <c r="E229" s="25" t="s">
         <v>1903</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>3173</v>
+        <v>3147</v>
       </c>
       <c r="G229" t="s">
-        <v>3286</v>
+        <v>3258</v>
       </c>
       <c r="H229" s="2" t="s">
         <v>1916</v>
@@ -25395,22 +25735,22 @@
         <v>1758</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>2896</v>
+        <v>2888</v>
       </c>
       <c r="C230" s="19" t="s">
         <v>1358</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>2984</v>
+        <v>2958</v>
       </c>
       <c r="E230" s="25" t="s">
         <v>1604</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>3174</v>
+        <v>3148</v>
       </c>
       <c r="G230" t="s">
-        <v>3287</v>
+        <v>3259</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>490</v>
@@ -25430,25 +25770,25 @@
         <v>1759</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>2792</v>
+        <v>2784</v>
       </c>
       <c r="C231" s="19" t="s">
         <v>1359</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>2985</v>
+        <v>2959</v>
       </c>
       <c r="E231" s="25" t="s">
         <v>1605</v>
       </c>
       <c r="F231" s="13" t="s">
-        <v>3175</v>
+        <v>3149</v>
       </c>
       <c r="G231" t="s">
-        <v>3288</v>
+        <v>3260</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>3392</v>
+        <v>3364</v>
       </c>
       <c r="I231" s="4" t="s">
         <v>804</v>
@@ -25465,22 +25805,22 @@
         <v>1760</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>2793</v>
+        <v>2785</v>
       </c>
       <c r="C232" s="19" t="s">
         <v>1360</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>2791</v>
+        <v>2783</v>
       </c>
       <c r="E232" s="42" t="s">
-        <v>3048</v>
+        <v>3022</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>3176</v>
+        <v>3150</v>
       </c>
       <c r="G232" t="s">
-        <v>3289</v>
+        <v>3261</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>491</v>
@@ -25500,25 +25840,25 @@
         <v>1761</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>2908</v>
+        <v>2900</v>
       </c>
       <c r="C233" s="19" t="s">
         <v>1361</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>2986</v>
+        <v>2960</v>
       </c>
       <c r="E233" s="25" t="s">
-        <v>3047</v>
+        <v>3021</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>3177</v>
+        <v>3151</v>
       </c>
       <c r="G233" t="s">
-        <v>3290</v>
+        <v>3262</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>3393</v>
+        <v>3365</v>
       </c>
       <c r="I233" s="2" t="s">
         <v>806</v>
@@ -25535,25 +25875,25 @@
         <v>1762</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>2907</v>
+        <v>2899</v>
       </c>
       <c r="C234" s="19" t="s">
         <v>1362</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>2987</v>
+        <v>2961</v>
       </c>
       <c r="E234" s="25" t="s">
-        <v>3049</v>
+        <v>3023</v>
       </c>
       <c r="F234" s="13" t="s">
-        <v>3178</v>
+        <v>3152</v>
       </c>
       <c r="G234" t="s">
-        <v>3291</v>
+        <v>3263</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>3394</v>
+        <v>3366</v>
       </c>
       <c r="I234" s="2" t="s">
         <v>807</v>
@@ -25605,16 +25945,16 @@
         <v>1764</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>2795</v>
+        <v>2787</v>
       </c>
       <c r="C236" s="19" t="s">
         <v>1364</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>2988</v>
+        <v>2962</v>
       </c>
       <c r="E236" s="25" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="F236" s="11" t="s">
         <v>1102</v>
@@ -25623,7 +25963,7 @@
         <v>965</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>3395</v>
+        <v>3367</v>
       </c>
       <c r="I236" s="5" t="s">
         <v>1864</v>
@@ -25632,7 +25972,7 @@
         <v>2522</v>
       </c>
       <c r="K236" s="13" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="15" thickBot="1">
@@ -25667,7 +26007,7 @@
         <v>2523</v>
       </c>
       <c r="K237" s="13" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -25675,7 +26015,7 @@
         <v>1766</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>2909</v>
+        <v>2901</v>
       </c>
       <c r="C238" s="19" t="s">
         <v>1366</v>
@@ -25684,16 +26024,16 @@
         <v>908</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>3050</v>
+        <v>3024</v>
       </c>
       <c r="F238" s="16" t="s">
-        <v>3179</v>
+        <v>3153</v>
       </c>
       <c r="G238" t="s">
-        <v>3292</v>
+        <v>3264</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>3396</v>
+        <v>3368</v>
       </c>
       <c r="I238" s="2" t="s">
         <v>809</v>
@@ -25728,7 +26068,7 @@
         <v>593</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>3397</v>
+        <v>3369</v>
       </c>
       <c r="I239" s="2" t="s">
         <v>1885</v>
@@ -25786,7 +26126,7 @@
         <v>1369</v>
       </c>
       <c r="D241" s="61" t="s">
-        <v>2989</v>
+        <v>2963</v>
       </c>
       <c r="E241" s="25" t="s">
         <v>1610</v>
@@ -25821,7 +26161,7 @@
         <v>1370</v>
       </c>
       <c r="D242" s="61" t="s">
-        <v>2990</v>
+        <v>2964</v>
       </c>
       <c r="E242" s="25" t="s">
         <v>1611</v>
@@ -25850,22 +26190,22 @@
         <v>1768</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>2910</v>
+        <v>2902</v>
       </c>
       <c r="C243" s="19" t="s">
         <v>1371</v>
       </c>
       <c r="D243" s="61" t="s">
-        <v>2991</v>
+        <v>2965</v>
       </c>
       <c r="E243" s="25" t="s">
-        <v>3398</v>
+        <v>3370</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>3180</v>
+        <v>3154</v>
       </c>
       <c r="G243" t="s">
-        <v>3399</v>
+        <v>3371</v>
       </c>
       <c r="H243" s="3" t="s">
         <v>495</v>
@@ -25891,28 +26231,28 @@
         <v>1372</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>2762</v>
+        <v>2754</v>
       </c>
       <c r="E244" s="25" t="s">
-        <v>3051</v>
+        <v>3025</v>
       </c>
       <c r="F244" s="11" t="s">
-        <v>3128</v>
+        <v>3102</v>
       </c>
       <c r="G244" s="72" t="s">
-        <v>3249</v>
+        <v>3221</v>
       </c>
       <c r="H244" s="3" t="s">
         <v>433</v>
       </c>
       <c r="I244" t="s">
-        <v>2853</v>
+        <v>2845</v>
       </c>
       <c r="J244" s="13" t="s">
-        <v>2637</v>
+        <v>2633</v>
       </c>
       <c r="K244" s="13" t="s">
-        <v>2660</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -25932,10 +26272,10 @@
         <v>1612</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>3181</v>
+        <v>3155</v>
       </c>
       <c r="G245" s="13" t="s">
-        <v>3293</v>
+        <v>3265</v>
       </c>
       <c r="H245" s="3" t="s">
         <v>496</v>
@@ -25999,13 +26339,13 @@
         <v>341</v>
       </c>
       <c r="E247" s="25" t="s">
-        <v>3052</v>
+        <v>3026</v>
       </c>
       <c r="F247" s="11" t="s">
-        <v>3182</v>
+        <v>3156</v>
       </c>
       <c r="G247" t="s">
-        <v>3252</v>
+        <v>3224</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>498</v>
@@ -26034,16 +26374,16 @@
         <v>308</v>
       </c>
       <c r="E248" s="25" t="s">
-        <v>3053</v>
+        <v>3027</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>3183</v>
+        <v>3157</v>
       </c>
       <c r="G248" t="s">
-        <v>3294</v>
+        <v>3266</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>3400</v>
+        <v>3372</v>
       </c>
       <c r="I248" s="4" t="s">
         <v>815</v>
@@ -26078,7 +26418,7 @@
         <v>580</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>3402</v>
+        <v>3374</v>
       </c>
       <c r="I249" s="2" t="s">
         <v>816</v>
@@ -26095,25 +26435,25 @@
         <v>1774</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>2911</v>
+        <v>2903</v>
       </c>
       <c r="C250" s="19" t="s">
         <v>1280</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>2796</v>
+        <v>2788</v>
       </c>
       <c r="E250" s="25" t="s">
-        <v>3054</v>
+        <v>3028</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>3184</v>
+        <v>3158</v>
       </c>
       <c r="G250" t="s">
         <v>581</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>3401</v>
+        <v>3373</v>
       </c>
       <c r="I250" s="2" t="s">
         <v>817</v>
@@ -26139,7 +26479,7 @@
         <v>342</v>
       </c>
       <c r="E251" s="25" t="s">
-        <v>3055</v>
+        <v>3029</v>
       </c>
       <c r="F251" s="11" t="s">
         <v>1109</v>
@@ -26148,7 +26488,7 @@
         <v>582</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>3403</v>
+        <v>3375</v>
       </c>
       <c r="I251" s="2" t="s">
         <v>818</v>
@@ -26171,10 +26511,10 @@
         <v>1375</v>
       </c>
       <c r="D252" s="61" t="s">
-        <v>2992</v>
+        <v>2966</v>
       </c>
       <c r="E252" s="25" t="s">
-        <v>3056</v>
+        <v>3030</v>
       </c>
       <c r="F252" s="13" t="s">
         <v>1110</v>
@@ -26183,7 +26523,7 @@
         <v>595</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>3404</v>
+        <v>3376</v>
       </c>
       <c r="I252" s="3" t="s">
         <v>819</v>
@@ -26209,7 +26549,7 @@
         <v>343</v>
       </c>
       <c r="E253" s="25" t="s">
-        <v>3057</v>
+        <v>3031</v>
       </c>
       <c r="F253" s="11" t="s">
         <v>343</v>
@@ -26241,22 +26581,22 @@
         <v>1372</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>2762</v>
+        <v>2754</v>
       </c>
       <c r="E254" s="25" t="s">
-        <v>2851</v>
+        <v>2843</v>
       </c>
       <c r="F254" s="72" t="s">
-        <v>3128</v>
+        <v>3102</v>
       </c>
       <c r="G254" s="72" t="s">
-        <v>3249</v>
+        <v>3221</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>3405</v>
+        <v>3377</v>
       </c>
       <c r="I254" t="s">
-        <v>2852</v>
+        <v>2844</v>
       </c>
       <c r="J254" s="13" t="s">
         <v>2393</v>
@@ -26279,7 +26619,7 @@
         <v>310</v>
       </c>
       <c r="E255" s="42" t="s">
-        <v>3058</v>
+        <v>3032</v>
       </c>
       <c r="F255" s="11" t="s">
         <v>310</v>
@@ -26305,25 +26645,25 @@
         <v>1778</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>2912</v>
+        <v>2904</v>
       </c>
       <c r="C256" s="19" t="s">
         <v>1376</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>2764</v>
+        <v>2756</v>
       </c>
       <c r="E256" s="25" t="s">
         <v>1615</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>3185</v>
+        <v>3159</v>
       </c>
       <c r="G256" t="s">
-        <v>3295</v>
+        <v>3267</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>3406</v>
+        <v>3378</v>
       </c>
       <c r="I256" s="2" t="s">
         <v>822</v>
@@ -26340,7 +26680,7 @@
         <v>1779</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>2913</v>
+        <v>2905</v>
       </c>
       <c r="C257" s="19" t="s">
         <v>1377</v>
@@ -26349,16 +26689,16 @@
         <v>344</v>
       </c>
       <c r="E257" s="25" t="s">
-        <v>3059</v>
+        <v>3033</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>3186</v>
+        <v>3160</v>
       </c>
       <c r="G257" t="s">
-        <v>3296</v>
+        <v>3268</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>3407</v>
+        <v>3379</v>
       </c>
       <c r="I257" s="2" t="s">
         <v>823</v>
@@ -26375,25 +26715,25 @@
         <v>1780</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>2914</v>
+        <v>2906</v>
       </c>
       <c r="C258" s="19" t="s">
         <v>1378</v>
       </c>
       <c r="D258" s="61" t="s">
-        <v>2993</v>
+        <v>2967</v>
       </c>
       <c r="E258" s="25" t="s">
-        <v>3060</v>
+        <v>3034</v>
       </c>
       <c r="F258" s="11" t="s">
         <v>1111</v>
       </c>
       <c r="G258" t="s">
-        <v>3297</v>
+        <v>3269</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>3408</v>
+        <v>3380</v>
       </c>
       <c r="I258" s="2" t="s">
         <v>824</v>
@@ -26416,10 +26756,10 @@
         <v>1379</v>
       </c>
       <c r="D259" s="61" t="s">
-        <v>2994</v>
+        <v>2968</v>
       </c>
       <c r="E259" s="25" t="s">
-        <v>3061</v>
+        <v>3035</v>
       </c>
       <c r="F259" s="11" t="s">
         <v>1112</v>
@@ -26428,7 +26768,7 @@
         <v>597</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>3409</v>
+        <v>3381</v>
       </c>
       <c r="I259" s="2" t="s">
         <v>825</v>
@@ -26451,10 +26791,10 @@
         <v>1380</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>2797</v>
+        <v>2789</v>
       </c>
       <c r="E260" s="25" t="s">
-        <v>3062</v>
+        <v>3036</v>
       </c>
       <c r="F260" s="13" t="s">
         <v>1113</v>
@@ -26515,25 +26855,25 @@
         <v>1783</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>2915</v>
+        <v>2907</v>
       </c>
       <c r="C262" s="19" t="s">
         <v>1382</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>2798</v>
+        <v>2790</v>
       </c>
       <c r="E262" s="25" t="s">
         <v>1617</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>3187</v>
+        <v>3161</v>
       </c>
       <c r="G262" t="s">
-        <v>3298</v>
+        <v>3270</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>3410</v>
+        <v>3382</v>
       </c>
       <c r="I262" s="2" t="s">
         <v>828</v>
@@ -26550,25 +26890,25 @@
         <v>1784</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>2916</v>
+        <v>2908</v>
       </c>
       <c r="C263" s="22" t="s">
         <v>1383</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>2995</v>
+        <v>2969</v>
       </c>
       <c r="E263" s="25" t="s">
-        <v>3063</v>
+        <v>3037</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>3188</v>
+        <v>3162</v>
       </c>
       <c r="G263" t="s">
         <v>970</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>3411</v>
+        <v>3383</v>
       </c>
       <c r="I263" s="2" t="s">
         <v>829</v>
@@ -26591,7 +26931,7 @@
         <v>1339</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>2788</v>
+        <v>2780</v>
       </c>
       <c r="E264" s="25" t="s">
         <v>1618</v>
@@ -26600,7 +26940,7 @@
         <v>1114</v>
       </c>
       <c r="G264" t="s">
-        <v>3299</v>
+        <v>3271</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>499</v>
@@ -26696,7 +27036,7 @@
         <v>1384</v>
       </c>
       <c r="D267" s="61" t="s">
-        <v>2996</v>
+        <v>2970</v>
       </c>
       <c r="E267" s="10" t="s">
         <v>1619</v>
@@ -26717,7 +27057,7 @@
         <v>2524</v>
       </c>
       <c r="K267" s="13" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -26731,7 +27071,7 @@
         <v>1385</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>2997</v>
+        <v>2971</v>
       </c>
       <c r="E268" s="25" t="s">
         <v>1620</v>
@@ -26752,7 +27092,7 @@
         <v>2525</v>
       </c>
       <c r="K268" s="13" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="15" thickBot="1">
@@ -26766,19 +27106,19 @@
         <v>1881</v>
       </c>
       <c r="D269" s="61" t="s">
-        <v>2998</v>
+        <v>2972</v>
       </c>
       <c r="E269" s="25" t="s">
-        <v>3300</v>
+        <v>3272</v>
       </c>
       <c r="F269" s="11" t="s">
-        <v>3301</v>
+        <v>3273</v>
       </c>
       <c r="G269" t="s">
-        <v>3302</v>
+        <v>3274</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>3303</v>
+        <v>3275</v>
       </c>
       <c r="I269" s="2" t="s">
         <v>833</v>
@@ -26836,10 +27176,10 @@
         <v>1387</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>2799</v>
+        <v>2791</v>
       </c>
       <c r="E271" s="25" t="s">
-        <v>3064</v>
+        <v>3038</v>
       </c>
       <c r="F271" s="11" t="s">
         <v>1117</v>
@@ -26874,7 +27214,7 @@
         <v>345</v>
       </c>
       <c r="E272" s="25" t="s">
-        <v>3065</v>
+        <v>3039</v>
       </c>
       <c r="F272" s="11" t="s">
         <v>1877</v>
@@ -26883,7 +27223,7 @@
         <v>592</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>3412</v>
+        <v>3384</v>
       </c>
       <c r="I272" s="3" t="s">
         <v>836</v>
@@ -26906,19 +27246,19 @@
         <v>1388</v>
       </c>
       <c r="D273" s="61" t="s">
-        <v>2999</v>
+        <v>2973</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>3066</v>
+        <v>3040</v>
       </c>
       <c r="F273" s="16" t="s">
-        <v>3189</v>
+        <v>3163</v>
       </c>
       <c r="G273" t="s">
         <v>974</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>3413</v>
+        <v>3385</v>
       </c>
       <c r="I273" s="3" t="s">
         <v>837</v>
@@ -26941,16 +27281,16 @@
         <v>1389</v>
       </c>
       <c r="D274" s="61" t="s">
-        <v>3000</v>
+        <v>2974</v>
       </c>
       <c r="E274" s="25" t="s">
-        <v>3067</v>
+        <v>3041</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>3190</v>
+        <v>3164</v>
       </c>
       <c r="G274" t="s">
-        <v>3304</v>
+        <v>3276</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>504</v>
@@ -26982,7 +27322,7 @@
         <v>1621</v>
       </c>
       <c r="F275" s="13" t="s">
-        <v>3191</v>
+        <v>3165</v>
       </c>
       <c r="G275" t="s">
         <v>573</v>
@@ -27011,13 +27351,13 @@
         <v>1391</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>2800</v>
+        <v>2792</v>
       </c>
       <c r="E276" s="25" t="s">
-        <v>3068</v>
+        <v>3042</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>3192</v>
+        <v>3166</v>
       </c>
       <c r="G276" t="s">
         <v>574</v>
@@ -27137,7 +27477,7 @@
         <v>2435</v>
       </c>
       <c r="K279" s="13" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -27221,7 +27561,7 @@
         <v>1655</v>
       </c>
       <c r="D282" s="61" t="s">
-        <v>3001</v>
+        <v>2975</v>
       </c>
       <c r="E282" s="10" t="s">
         <v>1650</v>
@@ -27250,25 +27590,25 @@
         <v>1796</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>2917</v>
+        <v>2909</v>
       </c>
       <c r="C283" s="15" t="s">
         <v>1397</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>3002</v>
+        <v>2976</v>
       </c>
       <c r="E283" s="42" t="s">
-        <v>3069</v>
+        <v>3043</v>
       </c>
       <c r="F283" s="13" t="s">
-        <v>3193</v>
+        <v>3167</v>
       </c>
       <c r="G283" t="s">
-        <v>3305</v>
+        <v>3277</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>3414</v>
+        <v>3386</v>
       </c>
       <c r="I283" s="2" t="s">
         <v>1653</v>
@@ -27285,25 +27625,25 @@
         <v>1797</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>2918</v>
+        <v>2910</v>
       </c>
       <c r="C284" s="13" t="s">
         <v>1398</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>3003</v>
+        <v>2977</v>
       </c>
       <c r="E284" s="25" t="s">
-        <v>3070</v>
+        <v>3044</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>3194</v>
+        <v>3168</v>
       </c>
       <c r="G284" t="s">
-        <v>3306</v>
+        <v>3278</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>3415</v>
+        <v>3387</v>
       </c>
       <c r="I284" s="2" t="s">
         <v>1654</v>
@@ -27320,22 +27660,22 @@
         <v>1817</v>
       </c>
       <c r="B285" t="s">
-        <v>2919</v>
+        <v>2911</v>
       </c>
       <c r="C285" s="13" t="s">
         <v>1399</v>
       </c>
       <c r="D285" s="61" t="s">
-        <v>3004</v>
+        <v>2978</v>
       </c>
       <c r="E285" s="10" t="s">
-        <v>3071</v>
+        <v>3045</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>3195</v>
+        <v>3169</v>
       </c>
       <c r="G285" t="s">
-        <v>3307</v>
+        <v>3279</v>
       </c>
       <c r="H285" s="2" t="s">
         <v>511</v>
@@ -27358,10 +27698,10 @@
         <v>212</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>2684</v>
+        <v>2677</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>2801</v>
+        <v>2793</v>
       </c>
       <c r="E286" s="25" t="s">
         <v>1631</v>
@@ -27373,10 +27713,10 @@
         <v>986</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>2683</v>
+        <v>2676</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>2685</v>
+        <v>2678</v>
       </c>
       <c r="J286" s="13" t="s">
         <v>2473</v>
@@ -27399,7 +27739,7 @@
         <v>917</v>
       </c>
       <c r="E287" s="32" t="s">
-        <v>3072</v>
+        <v>3046</v>
       </c>
       <c r="F287" s="16" t="s">
         <v>1123</v>
@@ -27431,7 +27771,7 @@
         <v>1401</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>2802</v>
+        <v>2794</v>
       </c>
       <c r="E288" s="25" t="s">
         <v>1624</v>
@@ -27466,16 +27806,16 @@
         <v>1402</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>3005</v>
+        <v>2979</v>
       </c>
       <c r="E289" s="42" t="s">
-        <v>3073</v>
+        <v>3047</v>
       </c>
       <c r="F289" s="11" t="s">
-        <v>3196</v>
+        <v>3170</v>
       </c>
       <c r="G289" t="s">
-        <v>3308</v>
+        <v>3280</v>
       </c>
       <c r="H289" s="2" t="s">
         <v>203</v>
@@ -27501,7 +27841,7 @@
         <v>1403</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>2803</v>
+        <v>2795</v>
       </c>
       <c r="E290" s="25" t="s">
         <v>1625</v>
@@ -27530,7 +27870,7 @@
         <v>1823</v>
       </c>
       <c r="B291" t="s">
-        <v>2920</v>
+        <v>2912</v>
       </c>
       <c r="C291" s="13" t="s">
         <v>1404</v>
@@ -27539,13 +27879,13 @@
         <v>918</v>
       </c>
       <c r="E291" s="33" t="s">
-        <v>3074</v>
+        <v>3048</v>
       </c>
       <c r="F291" s="11" t="s">
-        <v>3197</v>
+        <v>3171</v>
       </c>
       <c r="G291" s="13" t="s">
-        <v>3309</v>
+        <v>3281</v>
       </c>
       <c r="H291" s="4" t="s">
         <v>889</v>
@@ -27571,7 +27911,7 @@
         <v>1405</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>2804</v>
+        <v>2796</v>
       </c>
       <c r="E292" s="25" t="s">
         <v>1626</v>
@@ -27606,7 +27946,7 @@
         <v>1406</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>2805</v>
+        <v>2797</v>
       </c>
       <c r="E293" s="25" t="s">
         <v>515</v>
@@ -27641,7 +27981,7 @@
         <v>1407</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>2806</v>
+        <v>2798</v>
       </c>
       <c r="E294" s="25" t="s">
         <v>1627</v>
@@ -27676,7 +28016,7 @@
         <v>1431</v>
       </c>
       <c r="D295" s="52" t="s">
-        <v>3006</v>
+        <v>2980</v>
       </c>
       <c r="E295" s="25" t="s">
         <v>1905</v>
@@ -27705,34 +28045,34 @@
         <v>1846</v>
       </c>
       <c r="B296" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C296" s="13" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E296" s="25" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F296" s="16" t="s">
+        <v>2691</v>
+      </c>
+      <c r="G296" s="7" t="s">
+        <v>2692</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>2694</v>
+      </c>
+      <c r="J296" s="13" t="s">
         <v>2695</v>
       </c>
-      <c r="C296" s="13" t="s">
+      <c r="K296" s="13" t="s">
         <v>2696</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>2807</v>
-      </c>
-      <c r="E296" s="25" t="s">
-        <v>2697</v>
-      </c>
-      <c r="F296" s="16" t="s">
-        <v>2698</v>
-      </c>
-      <c r="G296" s="7" t="s">
-        <v>2699</v>
-      </c>
-      <c r="H296" s="2" t="s">
-        <v>2700</v>
-      </c>
-      <c r="I296" s="2" t="s">
-        <v>2701</v>
-      </c>
-      <c r="J296" s="13" t="s">
-        <v>2702</v>
-      </c>
-      <c r="K296" s="13" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -27740,25 +28080,25 @@
         <v>1829</v>
       </c>
       <c r="B297" t="s">
-        <v>2921</v>
+        <v>2913</v>
       </c>
       <c r="C297" s="13" t="s">
         <v>1408</v>
       </c>
       <c r="D297" s="61" t="s">
-        <v>3007</v>
+        <v>2981</v>
       </c>
       <c r="E297" s="25" t="s">
-        <v>3075</v>
+        <v>3049</v>
       </c>
       <c r="F297" s="11" t="s">
-        <v>3198</v>
+        <v>3172</v>
       </c>
       <c r="G297" t="s">
-        <v>3311</v>
+        <v>3283</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>3310</v>
+        <v>3282</v>
       </c>
       <c r="I297" s="4" t="s">
         <v>853</v>
@@ -27781,7 +28121,7 @@
         <v>1409</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>3008</v>
+        <v>2982</v>
       </c>
       <c r="E298" s="25" t="s">
         <v>1628</v>
@@ -27816,16 +28156,16 @@
         <v>1410</v>
       </c>
       <c r="D299" s="62" t="s">
-        <v>3009</v>
+        <v>2983</v>
       </c>
       <c r="E299" s="27" t="s">
-        <v>3076</v>
+        <v>3050</v>
       </c>
       <c r="F299" s="16" t="s">
-        <v>3199</v>
+        <v>3173</v>
       </c>
       <c r="G299" t="s">
-        <v>3312</v>
+        <v>3284</v>
       </c>
       <c r="H299" s="2" t="s">
         <v>518</v>
@@ -27851,7 +28191,7 @@
         <v>1411</v>
       </c>
       <c r="D300" s="63" t="s">
-        <v>2808</v>
+        <v>2800</v>
       </c>
       <c r="E300" s="25" t="s">
         <v>1629</v>
@@ -27886,16 +28226,16 @@
         <v>1412</v>
       </c>
       <c r="D301" s="64" t="s">
-        <v>3010</v>
+        <v>2984</v>
       </c>
       <c r="E301" s="25" t="s">
         <v>1630</v>
       </c>
       <c r="F301" s="11" t="s">
-        <v>3200</v>
+        <v>3174</v>
       </c>
       <c r="G301" t="s">
-        <v>3313</v>
+        <v>3285</v>
       </c>
       <c r="H301" s="2" t="s">
         <v>520</v>
@@ -27915,34 +28255,34 @@
         <v>1834</v>
       </c>
       <c r="B302" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E302" s="42" t="s">
+        <v>2681</v>
+      </c>
+      <c r="F302" s="13" t="s">
+        <v>2682</v>
+      </c>
+      <c r="G302" s="7" t="s">
+        <v>2683</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>2685</v>
+      </c>
+      <c r="J302" s="13" t="s">
         <v>2686</v>
       </c>
-      <c r="C302" s="13" t="s">
+      <c r="K302" s="13" t="s">
         <v>2687</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>2809</v>
-      </c>
-      <c r="E302" s="42" t="s">
-        <v>2688</v>
-      </c>
-      <c r="F302" s="13" t="s">
-        <v>2689</v>
-      </c>
-      <c r="G302" s="7" t="s">
-        <v>2690</v>
-      </c>
-      <c r="H302" s="2" t="s">
-        <v>2691</v>
-      </c>
-      <c r="I302" s="2" t="s">
-        <v>2692</v>
-      </c>
-      <c r="J302" s="13" t="s">
-        <v>2693</v>
-      </c>
-      <c r="K302" s="13" t="s">
-        <v>2694</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -27962,10 +28302,10 @@
         <v>1632</v>
       </c>
       <c r="F303" s="11" t="s">
-        <v>3201</v>
+        <v>3175</v>
       </c>
       <c r="G303" t="s">
-        <v>3314</v>
+        <v>3286</v>
       </c>
       <c r="H303" s="2" t="s">
         <v>521</v>
@@ -27991,10 +28331,10 @@
         <v>1414</v>
       </c>
       <c r="D304" s="65" t="s">
-        <v>2810</v>
+        <v>2802</v>
       </c>
       <c r="E304" s="25" t="s">
-        <v>2848</v>
+        <v>2840</v>
       </c>
       <c r="F304" s="11" t="s">
         <v>1131</v>
@@ -28026,19 +28366,19 @@
         <v>1415</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>3011</v>
+        <v>2985</v>
       </c>
       <c r="E305" s="42" t="s">
         <v>1633</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>3202</v>
+        <v>3176</v>
       </c>
       <c r="G305" t="s">
-        <v>3315</v>
+        <v>3287</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>3316</v>
+        <v>3288</v>
       </c>
       <c r="I305" s="2" t="s">
         <v>860</v>
@@ -28061,7 +28401,7 @@
         <v>1416</v>
       </c>
       <c r="D306" s="66" t="s">
-        <v>2811</v>
+        <v>2803</v>
       </c>
       <c r="E306" s="25" t="s">
         <v>1634</v>
@@ -28090,25 +28430,25 @@
         <v>1839</v>
       </c>
       <c r="B307" t="s">
-        <v>2922</v>
+        <v>2914</v>
       </c>
       <c r="C307" s="20" t="s">
         <v>1417</v>
       </c>
       <c r="D307" s="61" t="s">
-        <v>3012</v>
+        <v>2986</v>
       </c>
       <c r="E307" s="25" t="s">
-        <v>3077</v>
+        <v>3051</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>3203</v>
+        <v>3177</v>
       </c>
       <c r="G307" t="s">
-        <v>3317</v>
+        <v>3289</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>3318</v>
+        <v>3290</v>
       </c>
       <c r="I307" s="4" t="s">
         <v>861</v>
@@ -28143,7 +28483,7 @@
         <v>989</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>3320</v>
+        <v>3292</v>
       </c>
       <c r="I308" s="3" t="s">
         <v>862</v>
@@ -28160,25 +28500,25 @@
         <v>1841</v>
       </c>
       <c r="B309" t="s">
-        <v>2923</v>
+        <v>2915</v>
       </c>
       <c r="C309" s="20" t="s">
         <v>1419</v>
       </c>
       <c r="D309" s="67" t="s">
-        <v>3013</v>
+        <v>2987</v>
       </c>
       <c r="E309" s="25" t="s">
-        <v>3078</v>
+        <v>3052</v>
       </c>
       <c r="F309" s="11" t="s">
-        <v>3204</v>
+        <v>3178</v>
       </c>
       <c r="G309" t="s">
-        <v>3319</v>
+        <v>3291</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>3321</v>
+        <v>3293</v>
       </c>
       <c r="I309" s="2" t="s">
         <v>864</v>
@@ -28201,7 +28541,7 @@
         <v>1420</v>
       </c>
       <c r="D310" s="61" t="s">
-        <v>2724</v>
+        <v>2717</v>
       </c>
       <c r="E310" s="25" t="s">
         <v>1635</v>
@@ -28213,7 +28553,7 @@
         <v>990</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>3322</v>
+        <v>3294</v>
       </c>
       <c r="I310" s="2" t="s">
         <v>865</v>
@@ -28230,25 +28570,25 @@
         <v>1843</v>
       </c>
       <c r="B311" t="s">
-        <v>2924</v>
+        <v>2916</v>
       </c>
       <c r="C311" s="13" t="s">
         <v>1421</v>
       </c>
       <c r="D311" s="61" t="s">
-        <v>3014</v>
+        <v>2988</v>
       </c>
       <c r="E311" s="25" t="s">
-        <v>3079</v>
+        <v>3053</v>
       </c>
       <c r="F311" s="11" t="s">
-        <v>3205</v>
+        <v>3179</v>
       </c>
       <c r="G311" t="s">
-        <v>3323</v>
+        <v>3295</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>3324</v>
+        <v>3296</v>
       </c>
       <c r="I311" s="2" t="s">
         <v>866</v>
@@ -28271,10 +28611,10 @@
         <v>1422</v>
       </c>
       <c r="D312" s="61" t="s">
-        <v>2850</v>
+        <v>2842</v>
       </c>
       <c r="E312" s="27" t="s">
-        <v>3080</v>
+        <v>3054</v>
       </c>
       <c r="F312" s="11" t="s">
         <v>1135</v>
@@ -28312,13 +28652,13 @@
         <v>1636</v>
       </c>
       <c r="F313" s="13" t="s">
-        <v>3206</v>
+        <v>3180</v>
       </c>
       <c r="G313" t="s">
-        <v>3325</v>
+        <v>3297</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>3326</v>
+        <v>3298</v>
       </c>
       <c r="I313" s="2" t="s">
         <v>868</v>
@@ -28341,19 +28681,19 @@
         <v>1424</v>
       </c>
       <c r="D314" s="68" t="s">
-        <v>2812</v>
+        <v>2804</v>
       </c>
       <c r="E314" s="25" t="s">
-        <v>3081</v>
+        <v>3055</v>
       </c>
       <c r="F314" s="11" t="s">
         <v>1136</v>
       </c>
       <c r="G314" t="s">
-        <v>3327</v>
+        <v>3299</v>
       </c>
       <c r="H314" s="2" t="s">
-        <v>3328</v>
+        <v>3300</v>
       </c>
       <c r="I314" s="4" t="s">
         <v>869</v>
@@ -28376,13 +28716,13 @@
         <v>1425</v>
       </c>
       <c r="D315" s="61" t="s">
-        <v>3015</v>
+        <v>2989</v>
       </c>
       <c r="E315" s="25" t="s">
-        <v>3083</v>
+        <v>3057</v>
       </c>
       <c r="F315" s="11" t="s">
-        <v>3207</v>
+        <v>3181</v>
       </c>
       <c r="G315" t="s">
         <v>992</v>
@@ -28414,16 +28754,16 @@
         <v>351</v>
       </c>
       <c r="E316" s="25" t="s">
-        <v>3082</v>
+        <v>3056</v>
       </c>
       <c r="F316" s="11" t="s">
         <v>1137</v>
       </c>
       <c r="G316" t="s">
-        <v>3329</v>
+        <v>3301</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>3330</v>
+        <v>3302</v>
       </c>
       <c r="I316" s="2" t="s">
         <v>871</v>
@@ -28446,16 +28786,16 @@
         <v>1427</v>
       </c>
       <c r="D317" s="69" t="s">
-        <v>2813</v>
+        <v>2805</v>
       </c>
       <c r="E317" s="25" t="s">
         <v>1637</v>
       </c>
       <c r="F317" s="13" t="s">
-        <v>3208</v>
+        <v>3182</v>
       </c>
       <c r="G317" t="s">
-        <v>2877</v>
+        <v>2869</v>
       </c>
       <c r="H317" s="2" t="s">
         <v>526</v>
@@ -28481,7 +28821,7 @@
         <v>1428</v>
       </c>
       <c r="D318" s="70" t="s">
-        <v>2814</v>
+        <v>2806</v>
       </c>
       <c r="E318" s="25" t="s">
         <v>1638</v>
@@ -28490,10 +28830,10 @@
         <v>1138</v>
       </c>
       <c r="G318" t="s">
-        <v>3331</v>
+        <v>3303</v>
       </c>
       <c r="H318" s="2" t="s">
-        <v>3332</v>
+        <v>3304</v>
       </c>
       <c r="I318" s="2" t="s">
         <v>873</v>
@@ -28510,19 +28850,19 @@
         <v>1851</v>
       </c>
       <c r="B319" t="s">
-        <v>2925</v>
+        <v>2917</v>
       </c>
       <c r="C319" s="19" t="s">
         <v>1429</v>
       </c>
       <c r="D319" s="61" t="s">
-        <v>3016</v>
+        <v>2990</v>
       </c>
       <c r="E319" s="25" t="s">
         <v>1639</v>
       </c>
       <c r="F319" s="11" t="s">
-        <v>3209</v>
+        <v>3183</v>
       </c>
       <c r="G319" t="s">
         <v>993</v>
@@ -28551,7 +28891,7 @@
         <v>1430</v>
       </c>
       <c r="D320" s="71" t="s">
-        <v>3017</v>
+        <v>2991</v>
       </c>
       <c r="E320" s="25" t="s">
         <v>1640</v>
@@ -28560,10 +28900,10 @@
         <v>1139</v>
       </c>
       <c r="G320" t="s">
-        <v>3333</v>
+        <v>3305</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>3334</v>
+        <v>3306</v>
       </c>
       <c r="I320" s="2" t="s">
         <v>875</v>
@@ -28607,7 +28947,7 @@
         <v>2527</v>
       </c>
       <c r="K321" s="13" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="322" spans="1:11" ht="15" thickBot="1">
@@ -28642,7 +28982,7 @@
         <v>2528</v>
       </c>
       <c r="K322" s="13" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -28656,7 +28996,7 @@
         <v>1434</v>
       </c>
       <c r="D323" s="72" t="s">
-        <v>2816</v>
+        <v>2808</v>
       </c>
       <c r="E323" s="10" t="s">
         <v>1642</v>
@@ -28677,7 +29017,7 @@
         <v>2529</v>
       </c>
       <c r="K323" s="13" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -28691,19 +29031,19 @@
         <v>1435</v>
       </c>
       <c r="D324" s="72" t="s">
-        <v>2817</v>
+        <v>2809</v>
       </c>
       <c r="E324" s="25" t="s">
         <v>1643</v>
       </c>
       <c r="F324" s="11" t="s">
-        <v>3210</v>
+        <v>3184</v>
       </c>
       <c r="G324" t="s">
-        <v>3335</v>
+        <v>3307</v>
       </c>
       <c r="H324" s="5" t="s">
-        <v>3336</v>
+        <v>3308</v>
       </c>
       <c r="I324" s="5" t="s">
         <v>1871</v>
@@ -28712,7 +29052,7 @@
         <v>2530</v>
       </c>
       <c r="K324" s="13" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -28720,25 +29060,25 @@
         <v>1799</v>
       </c>
       <c r="B325" t="s">
-        <v>2926</v>
+        <v>2918</v>
       </c>
       <c r="C325" s="23" t="s">
         <v>1882</v>
       </c>
       <c r="D325" s="72" t="s">
-        <v>3018</v>
+        <v>2992</v>
       </c>
       <c r="E325" s="25" t="s">
         <v>1906</v>
       </c>
       <c r="F325" s="11" t="s">
-        <v>3211</v>
+        <v>3185</v>
       </c>
       <c r="G325" t="s">
-        <v>3337</v>
+        <v>3309</v>
       </c>
       <c r="H325" s="5" t="s">
-        <v>3339</v>
+        <v>3311</v>
       </c>
       <c r="I325" s="5" t="s">
         <v>1872</v>
@@ -28747,7 +29087,7 @@
         <v>2531</v>
       </c>
       <c r="K325" s="13" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -28755,25 +29095,25 @@
         <v>1800</v>
       </c>
       <c r="B326" t="s">
-        <v>2927</v>
+        <v>2919</v>
       </c>
       <c r="C326" s="23" t="s">
         <v>1882</v>
       </c>
       <c r="D326" s="72" t="s">
-        <v>3018</v>
+        <v>2992</v>
       </c>
       <c r="E326" s="25" t="s">
         <v>1911</v>
       </c>
       <c r="F326" s="11" t="s">
-        <v>3212</v>
+        <v>3186</v>
       </c>
       <c r="G326" t="s">
-        <v>3338</v>
+        <v>3310</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>3340</v>
+        <v>3312</v>
       </c>
       <c r="I326" s="5" t="s">
         <v>1873</v>
@@ -28782,7 +29122,7 @@
         <v>2532</v>
       </c>
       <c r="K326" s="13" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -28790,25 +29130,25 @@
         <v>1801</v>
       </c>
       <c r="B327" t="s">
-        <v>2928</v>
+        <v>2920</v>
       </c>
       <c r="C327" s="20" t="s">
         <v>1436</v>
       </c>
       <c r="D327" s="72" t="s">
-        <v>3019</v>
+        <v>2993</v>
       </c>
       <c r="E327" s="25" t="s">
         <v>1644</v>
       </c>
       <c r="F327" s="16" t="s">
-        <v>3213</v>
+        <v>3187</v>
       </c>
       <c r="G327" t="s">
-        <v>3341</v>
+        <v>3313</v>
       </c>
       <c r="H327" s="5" t="s">
-        <v>3342</v>
+        <v>3314</v>
       </c>
       <c r="I327" s="5" t="s">
         <v>1874</v>
@@ -28817,7 +29157,7 @@
         <v>2533</v>
       </c>
       <c r="K327" s="13" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -28831,7 +29171,7 @@
         <v>1883</v>
       </c>
       <c r="D328" s="72" t="s">
-        <v>2818</v>
+        <v>2810</v>
       </c>
       <c r="E328" s="25" t="s">
         <v>1910</v>
@@ -28846,13 +29186,13 @@
         <v>1915</v>
       </c>
       <c r="I328" s="5" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="J328" s="13" t="s">
         <v>2534</v>
       </c>
       <c r="K328" s="13" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -28860,13 +29200,13 @@
         <v>1803</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>2815</v>
+        <v>2807</v>
       </c>
       <c r="C329" s="19" t="s">
         <v>1884</v>
       </c>
       <c r="D329" s="72" t="s">
-        <v>2819</v>
+        <v>2811</v>
       </c>
       <c r="E329" s="27" t="s">
         <v>1909</v>
@@ -28881,13 +29221,13 @@
         <v>1914</v>
       </c>
       <c r="I329" s="5" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="J329" s="13" t="s">
         <v>2535</v>
       </c>
       <c r="K329" s="13" t="s">
-        <v>2661</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -28901,7 +29241,7 @@
         <v>1437</v>
       </c>
       <c r="D330" s="64" t="s">
-        <v>2958</v>
+        <v>2932</v>
       </c>
       <c r="E330" s="47" t="s">
         <v>1908</v>
@@ -28916,13 +29256,13 @@
         <v>1913</v>
       </c>
       <c r="I330" s="5" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="J330" s="13" t="s">
-        <v>2638</v>
+        <v>2634</v>
       </c>
       <c r="K330" s="13" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -28933,10 +29273,10 @@
         <v>1970</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D331" s="72" t="s">
-        <v>2820</v>
+        <v>2812</v>
       </c>
       <c r="E331" s="34" t="s">
         <v>1907</v>
@@ -28951,13 +29291,13 @@
         <v>1912</v>
       </c>
       <c r="I331" s="5" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="J331" s="13" t="s">
         <v>2536</v>
       </c>
       <c r="K331" s="13" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -28971,7 +29311,7 @@
         <v>1438</v>
       </c>
       <c r="D332" s="72" t="s">
-        <v>2821</v>
+        <v>2813</v>
       </c>
       <c r="E332" s="25" t="s">
         <v>1645</v>
@@ -28992,7 +29332,7 @@
         <v>2537</v>
       </c>
       <c r="K332" s="13" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -29000,25 +29340,25 @@
         <v>1949</v>
       </c>
       <c r="B333" t="s">
-        <v>2929</v>
+        <v>2921</v>
       </c>
       <c r="C333" s="19" t="s">
         <v>1439</v>
       </c>
       <c r="D333" s="72" t="s">
-        <v>3020</v>
+        <v>2994</v>
       </c>
       <c r="E333" s="25" t="s">
-        <v>3084</v>
+        <v>3058</v>
       </c>
       <c r="F333" s="16" t="s">
-        <v>3214</v>
+        <v>3188</v>
       </c>
       <c r="G333" t="s">
-        <v>3343</v>
+        <v>3315</v>
       </c>
       <c r="H333" s="5" t="s">
-        <v>3344</v>
+        <v>3316</v>
       </c>
       <c r="I333" s="5" t="s">
         <v>1876</v>
@@ -29027,7 +29367,7 @@
         <v>2538</v>
       </c>
       <c r="K333" s="13" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="334" spans="1:11" ht="15" thickBot="1">
@@ -29041,7 +29381,7 @@
         <v>1434</v>
       </c>
       <c r="D334" s="72" t="s">
-        <v>2822</v>
+        <v>2814</v>
       </c>
       <c r="E334" s="26" t="s">
         <v>1646</v>
@@ -29076,19 +29416,19 @@
         <v>1647</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>2725</v>
+        <v>2718</v>
       </c>
       <c r="E335" s="60" t="s">
-        <v>2827</v>
+        <v>2819</v>
       </c>
       <c r="F335" s="13" t="s">
-        <v>2947</v>
+        <v>3486</v>
       </c>
       <c r="G335" s="73" t="s">
-        <v>2878</v>
+        <v>2870</v>
       </c>
       <c r="H335" s="60" t="s">
-        <v>2855</v>
+        <v>2847</v>
       </c>
       <c r="I335" s="13" t="s">
         <v>1647</v>
@@ -29102,7 +29442,7 @@
     </row>
     <row r="336" spans="1:11" s="8" customFormat="1" ht="15.6">
       <c r="A336" s="13" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B336" s="13" t="s">
         <v>1807</v>
@@ -29111,33 +29451,33 @@
         <v>1647</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>2726</v>
+        <v>2719</v>
       </c>
       <c r="E336" t="s">
-        <v>2829</v>
+        <v>2821</v>
       </c>
       <c r="F336" s="13" t="s">
-        <v>2948</v>
+        <v>3468</v>
       </c>
       <c r="G336" s="73" t="s">
-        <v>3345</v>
+        <v>3317</v>
       </c>
       <c r="H336" s="60" t="s">
-        <v>2856</v>
+        <v>2848</v>
       </c>
       <c r="I336" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="J336" s="13" t="s">
-        <v>2639</v>
+        <v>2635</v>
       </c>
       <c r="K336" s="13" t="s">
-        <v>2662</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="337" spans="1:11" s="8" customFormat="1" ht="15.6">
       <c r="A337" s="13" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B337" s="13" t="s">
         <v>1808</v>
@@ -29146,33 +29486,33 @@
         <v>1647</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>2727</v>
+        <v>2720</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>2830</v>
+        <v>2822</v>
       </c>
       <c r="F337" s="13" t="s">
-        <v>2949</v>
+        <v>3469</v>
       </c>
       <c r="G337" s="73" t="s">
-        <v>3299</v>
+        <v>3271</v>
       </c>
       <c r="H337" s="60" t="s">
-        <v>2857</v>
+        <v>2849</v>
       </c>
       <c r="I337" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="J337" s="13" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
       <c r="K337" s="13" t="s">
-        <v>2663</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="338" spans="1:11" s="8" customFormat="1" ht="15.6">
       <c r="A338" s="13" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B338" s="13" t="s">
         <v>1809</v>
@@ -29181,33 +29521,33 @@
         <v>1647</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>2728</v>
+        <v>2721</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>2831</v>
+        <v>2823</v>
       </c>
       <c r="F338" s="13" t="s">
-        <v>2950</v>
+        <v>3470</v>
       </c>
       <c r="G338" s="73" t="s">
-        <v>3346</v>
+        <v>3318</v>
       </c>
       <c r="H338" s="60" t="s">
-        <v>2858</v>
+        <v>2850</v>
       </c>
       <c r="I338" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="J338" s="13" t="s">
-        <v>2641</v>
+        <v>2637</v>
       </c>
       <c r="K338" s="13" t="s">
-        <v>2664</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="339" spans="1:11" s="8" customFormat="1" ht="15.6">
       <c r="A339" s="13" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B339" s="13" t="s">
         <v>1810</v>
@@ -29216,33 +29556,33 @@
         <v>1647</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>3021</v>
+        <v>2995</v>
       </c>
       <c r="E339" t="s">
-        <v>2832</v>
+        <v>2824</v>
       </c>
       <c r="F339" s="13" t="s">
-        <v>2951</v>
+        <v>3471</v>
       </c>
       <c r="G339" s="73" t="s">
-        <v>3347</v>
+        <v>3319</v>
       </c>
       <c r="H339" s="60" t="s">
-        <v>2859</v>
+        <v>2851</v>
       </c>
       <c r="I339" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="J339" s="13" t="s">
-        <v>2642</v>
+        <v>2638</v>
       </c>
       <c r="K339" s="13" t="s">
-        <v>2665</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="340" spans="1:11" ht="15.6">
       <c r="A340" s="13" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B340" s="13" t="s">
         <v>1811</v>
@@ -29251,33 +29591,33 @@
         <v>1647</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>3022</v>
+        <v>2996</v>
       </c>
       <c r="E340" s="13" t="s">
-        <v>2833</v>
+        <v>2825</v>
       </c>
       <c r="F340" s="13" t="s">
-        <v>3215</v>
+        <v>3472</v>
       </c>
       <c r="G340" s="73" t="s">
-        <v>3348</v>
+        <v>3320</v>
       </c>
       <c r="H340" s="60" t="s">
-        <v>2860</v>
+        <v>2852</v>
       </c>
       <c r="I340" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="J340" s="13" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
       <c r="K340" s="13" t="s">
-        <v>2666</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="341" spans="1:11" ht="15.6">
       <c r="A341" s="13" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B341" s="13" t="s">
         <v>1812</v>
@@ -29286,33 +29626,33 @@
         <v>1647</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>3023</v>
+        <v>2997</v>
       </c>
       <c r="E341" t="s">
-        <v>2835</v>
+        <v>2827</v>
       </c>
       <c r="F341" s="13" t="s">
-        <v>2939</v>
+        <v>3488</v>
       </c>
       <c r="G341" s="73" t="s">
-        <v>3349</v>
+        <v>3321</v>
       </c>
       <c r="H341" s="60" t="s">
-        <v>2861</v>
+        <v>2853</v>
       </c>
       <c r="I341" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="J341" s="13" t="s">
-        <v>2644</v>
+        <v>2640</v>
       </c>
       <c r="K341" s="13" t="s">
-        <v>2667</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="342" spans="1:11" ht="15.6">
       <c r="A342" s="13" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B342" s="13" t="s">
         <v>1813</v>
@@ -29321,28 +29661,28 @@
         <v>1647</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>3024</v>
+        <v>2998</v>
       </c>
       <c r="E342" t="s">
-        <v>2836</v>
+        <v>2828</v>
       </c>
       <c r="F342" s="13" t="s">
-        <v>3216</v>
+        <v>3487</v>
       </c>
       <c r="G342" s="73" t="s">
-        <v>3350</v>
+        <v>3322</v>
       </c>
       <c r="H342" s="60" t="s">
-        <v>2862</v>
+        <v>2854</v>
       </c>
       <c r="I342" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="J342" s="13" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
       <c r="K342" s="13" t="s">
-        <v>2668</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="343" spans="1:11" ht="15.6">
@@ -29350,34 +29690,34 @@
         <v>1814</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>2729</v>
+        <v>2722</v>
       </c>
       <c r="C343" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>2732</v>
+        <v>2725</v>
       </c>
       <c r="E343" t="s">
-        <v>2837</v>
+        <v>2829</v>
       </c>
       <c r="F343" s="13" t="s">
-        <v>2940</v>
+        <v>3473</v>
       </c>
       <c r="G343" s="73" t="s">
-        <v>2879</v>
+        <v>2871</v>
       </c>
       <c r="H343" s="60" t="s">
-        <v>2863</v>
+        <v>2855</v>
       </c>
       <c r="I343" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="J343" s="13" t="s">
-        <v>2646</v>
+        <v>2642</v>
       </c>
       <c r="K343" s="13" t="s">
-        <v>2669</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="344" spans="1:11" ht="15.6">
@@ -29385,34 +29725,34 @@
         <v>1815</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>2730</v>
+        <v>2723</v>
       </c>
       <c r="C344" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>2731</v>
+        <v>2724</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>2838</v>
+        <v>2830</v>
       </c>
       <c r="F344" s="13" t="s">
-        <v>2941</v>
+        <v>3474</v>
       </c>
       <c r="G344" s="73" t="s">
-        <v>2880</v>
+        <v>2872</v>
       </c>
       <c r="H344" s="60" t="s">
-        <v>2864</v>
+        <v>2856</v>
       </c>
       <c r="I344" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="J344" s="13" t="s">
-        <v>2647</v>
+        <v>3400</v>
       </c>
       <c r="K344" s="13" t="s">
-        <v>2670</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="345" spans="1:11" ht="15.6">
@@ -29426,159 +29766,159 @@
         <v>1647</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>2849</v>
+        <v>2841</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>2834</v>
+        <v>2826</v>
       </c>
       <c r="F345" s="13" t="s">
-        <v>2942</v>
+        <v>3475</v>
       </c>
       <c r="G345" s="73" t="s">
-        <v>2881</v>
+        <v>2873</v>
       </c>
       <c r="H345" s="60" t="s">
-        <v>2865</v>
+        <v>2857</v>
       </c>
       <c r="I345" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="J345" s="13" t="s">
-        <v>2648</v>
+        <v>2643</v>
       </c>
       <c r="K345" s="13" t="s">
-        <v>2671</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="346" spans="1:11" ht="15.6">
       <c r="A346" s="13" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="B346" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="C346" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>2733</v>
+        <v>2726</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>2839</v>
+        <v>2831</v>
       </c>
       <c r="F346" s="13" t="s">
-        <v>2952</v>
+        <v>3476</v>
       </c>
       <c r="G346" s="73" t="s">
-        <v>2882</v>
+        <v>2874</v>
       </c>
       <c r="H346" s="60" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="I346" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="J346" s="13" t="s">
-        <v>2649</v>
+        <v>2644</v>
       </c>
       <c r="K346" s="13" t="s">
-        <v>2672</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="347" spans="1:11" ht="15.6">
       <c r="A347" s="13" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="B347" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="C347" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>2734</v>
+        <v>2727</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>2840</v>
+        <v>2832</v>
       </c>
       <c r="F347" s="13" t="s">
-        <v>2943</v>
+        <v>3477</v>
       </c>
       <c r="G347" s="73" t="s">
-        <v>2883</v>
+        <v>2875</v>
       </c>
       <c r="H347" s="60" t="s">
-        <v>2866</v>
+        <v>2858</v>
       </c>
       <c r="I347" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="J347" s="13" t="s">
-        <v>2650</v>
+        <v>2645</v>
       </c>
       <c r="K347" s="13" t="s">
-        <v>2673</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="348" spans="1:11" ht="15.6">
       <c r="A348" s="13" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B348" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C348" s="13" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D348" s="61" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E348" s="17" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F348" t="s">
+        <v>3478</v>
+      </c>
+      <c r="G348" s="73" t="s">
+        <v>2876</v>
+      </c>
+      <c r="H348" s="60" t="s">
+        <v>2673</v>
+      </c>
+      <c r="I348" s="3" t="s">
         <v>2674</v>
       </c>
-      <c r="B348" t="s">
-        <v>2676</v>
-      </c>
-      <c r="C348" s="13" t="s">
+      <c r="J348" s="13" t="s">
         <v>2675</v>
       </c>
-      <c r="D348" s="61" t="s">
-        <v>2677</v>
-      </c>
-      <c r="E348" s="17" t="s">
-        <v>2678</v>
-      </c>
-      <c r="F348" t="s">
-        <v>2679</v>
-      </c>
-      <c r="G348" s="73" t="s">
-        <v>2884</v>
-      </c>
-      <c r="H348" s="60" t="s">
-        <v>2680</v>
-      </c>
-      <c r="I348" s="3" t="s">
-        <v>2681</v>
-      </c>
-      <c r="J348" s="13" t="s">
-        <v>2682</v>
-      </c>
       <c r="K348" s="13" t="s">
-        <v>2675</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="349" spans="1:11" ht="15.6">
       <c r="A349" s="13" t="s">
-        <v>2704</v>
+        <v>2697</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>2705</v>
+        <v>2698</v>
       </c>
       <c r="C349" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>2736</v>
+        <v>2729</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>2841</v>
+        <v>2833</v>
       </c>
       <c r="F349" s="13" t="s">
-        <v>2944</v>
+        <v>3479</v>
       </c>
       <c r="G349" s="73" t="s">
-        <v>3357</v>
+        <v>3329</v>
       </c>
       <c r="H349" s="60" t="s">
-        <v>2867</v>
+        <v>2859</v>
       </c>
       <c r="I349" s="13" t="s">
         <v>1647</v>
@@ -29592,28 +29932,28 @@
     </row>
     <row r="350" spans="1:11" ht="15.6">
       <c r="A350" s="13" t="s">
-        <v>2706</v>
+        <v>2699</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>2707</v>
+        <v>2700</v>
       </c>
       <c r="C350" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>2737</v>
+        <v>2730</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>2842</v>
+        <v>2834</v>
       </c>
       <c r="F350" s="13" t="s">
-        <v>2956</v>
+        <v>3480</v>
       </c>
       <c r="G350" s="73" t="s">
-        <v>3356</v>
+        <v>3328</v>
       </c>
       <c r="H350" s="60" t="s">
-        <v>2868</v>
+        <v>2860</v>
       </c>
       <c r="I350" s="13" t="s">
         <v>1647</v>
@@ -29627,28 +29967,28 @@
     </row>
     <row r="351" spans="1:11" ht="15.6">
       <c r="A351" s="13" t="s">
-        <v>2708</v>
+        <v>2701</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>2709</v>
+        <v>2702</v>
       </c>
       <c r="C351" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>2738</v>
+        <v>2731</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>2843</v>
+        <v>2835</v>
       </c>
       <c r="F351" s="13" t="s">
-        <v>2955</v>
+        <v>3481</v>
       </c>
       <c r="G351" s="73" t="s">
-        <v>3355</v>
+        <v>3327</v>
       </c>
       <c r="H351" s="60" t="s">
-        <v>2869</v>
+        <v>2861</v>
       </c>
       <c r="I351" s="13" t="s">
         <v>1647</v>
@@ -29662,28 +30002,28 @@
     </row>
     <row r="352" spans="1:11" ht="15.6">
       <c r="A352" s="13" t="s">
-        <v>2710</v>
+        <v>2703</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>2711</v>
+        <v>2704</v>
       </c>
       <c r="C352" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>2739</v>
+        <v>2732</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>2844</v>
+        <v>2836</v>
       </c>
       <c r="F352" s="13" t="s">
-        <v>2945</v>
+        <v>3482</v>
       </c>
       <c r="G352" s="73" t="s">
-        <v>3354</v>
+        <v>3326</v>
       </c>
       <c r="H352" s="60" t="s">
-        <v>2870</v>
+        <v>2862</v>
       </c>
       <c r="I352" s="13" t="s">
         <v>1647</v>
@@ -29697,28 +30037,28 @@
     </row>
     <row r="353" spans="1:11" ht="15.6">
       <c r="A353" s="13" t="s">
-        <v>2712</v>
+        <v>2705</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>2713</v>
+        <v>2706</v>
       </c>
       <c r="C353" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>2740</v>
+        <v>2733</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>2845</v>
+        <v>2837</v>
       </c>
       <c r="F353" s="13" t="s">
-        <v>2957</v>
+        <v>3483</v>
       </c>
       <c r="G353" s="73" t="s">
-        <v>3353</v>
+        <v>3325</v>
       </c>
       <c r="H353" s="60" t="s">
-        <v>2871</v>
+        <v>2863</v>
       </c>
       <c r="I353" s="13" t="s">
         <v>1647</v>
@@ -29732,28 +30072,28 @@
     </row>
     <row r="354" spans="1:11" ht="15.6">
       <c r="A354" s="13" t="s">
-        <v>2714</v>
+        <v>2707</v>
       </c>
       <c r="B354" s="13" t="s">
-        <v>2715</v>
+        <v>2708</v>
       </c>
       <c r="C354" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>2741</v>
+        <v>2734</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>2846</v>
+        <v>2838</v>
       </c>
       <c r="F354" s="13" t="s">
-        <v>2946</v>
+        <v>3484</v>
       </c>
       <c r="G354" s="73" t="s">
-        <v>2885</v>
+        <v>2877</v>
       </c>
       <c r="H354" s="60" t="s">
-        <v>2872</v>
+        <v>2864</v>
       </c>
       <c r="I354" s="13" t="s">
         <v>1647</v>
@@ -29765,65 +30105,65 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="15.6">
+    <row r="355" spans="1:11" ht="16.8">
       <c r="A355" s="13" t="s">
-        <v>2716</v>
-      </c>
-      <c r="B355" t="s">
-        <v>2716</v>
-      </c>
-      <c r="C355" s="13" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>2742</v>
-      </c>
-      <c r="E355" s="2" t="s">
-        <v>2847</v>
-      </c>
-      <c r="F355" s="13" t="s">
-        <v>2716</v>
-      </c>
-      <c r="G355" s="73" t="s">
-        <v>2886</v>
-      </c>
-      <c r="H355" s="60" t="s">
-        <v>2847</v>
-      </c>
-      <c r="I355" s="13" t="s">
-        <v>1647</v>
-      </c>
-      <c r="J355" s="13" t="s">
-        <v>1647</v>
-      </c>
-      <c r="K355" s="13" t="s">
-        <v>1647</v>
+        <v>2709</v>
+      </c>
+      <c r="B355" s="76" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C355" s="76" t="s">
+        <v>3500</v>
+      </c>
+      <c r="D355" s="76" t="s">
+        <v>3501</v>
+      </c>
+      <c r="E355" s="76" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F355" s="76" t="s">
+        <v>3502</v>
+      </c>
+      <c r="G355" s="76" t="s">
+        <v>2878</v>
+      </c>
+      <c r="H355" s="76" t="s">
+        <v>2839</v>
+      </c>
+      <c r="I355" s="76" t="s">
+        <v>3503</v>
+      </c>
+      <c r="J355" s="76" t="s">
+        <v>3504</v>
+      </c>
+      <c r="K355" s="76" t="s">
+        <v>3505</v>
       </c>
     </row>
     <row r="356" spans="1:11" ht="15.6">
       <c r="A356" s="13" t="s">
-        <v>2938</v>
+        <v>2930</v>
       </c>
       <c r="B356" t="s">
-        <v>2823</v>
+        <v>2815</v>
       </c>
       <c r="C356" s="72" t="s">
         <v>1647</v>
       </c>
       <c r="D356" t="s">
-        <v>2873</v>
+        <v>2865</v>
       </c>
       <c r="E356" s="72" t="s">
-        <v>2854</v>
+        <v>2846</v>
       </c>
       <c r="F356" s="72" t="s">
-        <v>2953</v>
+        <v>3485</v>
       </c>
       <c r="G356" s="73" t="s">
-        <v>3351</v>
+        <v>3323</v>
       </c>
       <c r="H356" s="60" t="s">
-        <v>3352</v>
+        <v>3324</v>
       </c>
       <c r="I356" s="72" t="s">
         <v>1647</v>
@@ -29837,37 +30177,737 @@
     </row>
     <row r="357" spans="1:11" ht="15.6">
       <c r="A357" s="13" t="s">
-        <v>2930</v>
+        <v>2922</v>
       </c>
       <c r="B357" t="s">
-        <v>2930</v>
+        <v>2922</v>
       </c>
       <c r="C357" s="74" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D357" s="51" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E357" s="17" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F357" t="s">
         <v>2931</v>
-      </c>
-      <c r="D357" s="51" t="s">
-        <v>2933</v>
-      </c>
-      <c r="E357" s="17" t="s">
-        <v>2932</v>
-      </c>
-      <c r="F357" t="s">
-        <v>2954</v>
       </c>
       <c r="G357" s="73" t="s">
         <v>926</v>
       </c>
       <c r="H357" s="75" t="s">
-        <v>2934</v>
+        <v>2926</v>
       </c>
       <c r="I357" s="3" t="s">
-        <v>2935</v>
+        <v>2927</v>
       </c>
       <c r="J357" s="13" t="s">
-        <v>2936</v>
+        <v>2928</v>
       </c>
       <c r="K357" s="13" t="s">
-        <v>2937</v>
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11">
+      <c r="A358" s="13" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B358" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C358" s="72" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D358" s="72" t="s">
+        <v>3392</v>
+      </c>
+      <c r="E358" s="72" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F358" s="72" t="s">
+        <v>3392</v>
+      </c>
+      <c r="G358" s="72" t="s">
+        <v>3392</v>
+      </c>
+      <c r="H358" s="72" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I358" s="72" t="s">
+        <v>3392</v>
+      </c>
+      <c r="J358" s="72" t="s">
+        <v>3392</v>
+      </c>
+      <c r="K358" s="72" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11">
+      <c r="A359" s="13" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B359" s="72" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C359" s="72" t="s">
+        <v>3395</v>
+      </c>
+      <c r="D359" s="72" t="s">
+        <v>3395</v>
+      </c>
+      <c r="E359" s="72" t="s">
+        <v>3395</v>
+      </c>
+      <c r="F359" s="72" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G359" s="72" t="s">
+        <v>3395</v>
+      </c>
+      <c r="H359" s="72" t="s">
+        <v>3395</v>
+      </c>
+      <c r="I359" s="72" t="s">
+        <v>3395</v>
+      </c>
+      <c r="J359" s="72" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K359" s="72" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" s="72" customFormat="1">
+      <c r="A360" s="16" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B360" s="72" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C360" s="72" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D360" s="72" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E360" s="72" t="s">
+        <v>3507</v>
+      </c>
+      <c r="F360" s="72" t="s">
+        <v>3507</v>
+      </c>
+      <c r="G360" s="72" t="s">
+        <v>3507</v>
+      </c>
+      <c r="H360" s="72" t="s">
+        <v>3507</v>
+      </c>
+      <c r="I360" s="72" t="s">
+        <v>3507</v>
+      </c>
+      <c r="J360" s="72" t="s">
+        <v>3507</v>
+      </c>
+      <c r="K360" s="72" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11">
+      <c r="A361" s="13" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B361" s="72" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C361" s="72" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D361" s="72" t="s">
+        <v>3397</v>
+      </c>
+      <c r="E361" s="72" t="s">
+        <v>3397</v>
+      </c>
+      <c r="F361" s="72" t="s">
+        <v>3397</v>
+      </c>
+      <c r="G361" s="72" t="s">
+        <v>3397</v>
+      </c>
+      <c r="H361" s="72" t="s">
+        <v>3397</v>
+      </c>
+      <c r="I361" s="72" t="s">
+        <v>3397</v>
+      </c>
+      <c r="J361" s="72" t="s">
+        <v>3397</v>
+      </c>
+      <c r="K361" s="72" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11">
+      <c r="A362" s="13" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B362" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C362" t="s">
+        <v>3203</v>
+      </c>
+      <c r="D362" s="51" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E362" s="17" t="s">
+        <v>3203</v>
+      </c>
+      <c r="F362" t="s">
+        <v>3203</v>
+      </c>
+      <c r="G362" t="s">
+        <v>3203</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>3203</v>
+      </c>
+      <c r="I362" s="72" t="s">
+        <v>3203</v>
+      </c>
+      <c r="J362" s="72" t="s">
+        <v>3203</v>
+      </c>
+      <c r="K362" s="72" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11">
+      <c r="A363" s="13" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B363" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C363" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D363" s="51" t="s">
+        <v>3428</v>
+      </c>
+      <c r="E363" s="17" t="s">
+        <v>3461</v>
+      </c>
+      <c r="F363" t="s">
+        <v>3444</v>
+      </c>
+      <c r="G363" t="s">
+        <v>3436</v>
+      </c>
+      <c r="H363" s="3" t="s">
+        <v>3452</v>
+      </c>
+      <c r="I363" s="72" t="s">
+        <v>3420</v>
+      </c>
+      <c r="J363" s="72" t="s">
+        <v>3420</v>
+      </c>
+      <c r="K363" s="72" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11">
+      <c r="A364" s="13" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B364" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C364" t="s">
+        <v>3408</v>
+      </c>
+      <c r="D364" s="51" t="s">
+        <v>3429</v>
+      </c>
+      <c r="E364" s="17" t="s">
+        <v>3462</v>
+      </c>
+      <c r="F364" t="s">
+        <v>3449</v>
+      </c>
+      <c r="G364" t="s">
+        <v>3437</v>
+      </c>
+      <c r="H364" s="3" t="s">
+        <v>3453</v>
+      </c>
+      <c r="I364" s="72" t="s">
+        <v>3421</v>
+      </c>
+      <c r="J364" s="72" t="s">
+        <v>3421</v>
+      </c>
+      <c r="K364" s="72" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" ht="28.8">
+      <c r="A365" s="13" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B365" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C365" t="s">
+        <v>3414</v>
+      </c>
+      <c r="D365" s="51" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E365" s="17" t="s">
+        <v>3463</v>
+      </c>
+      <c r="F365" t="s">
+        <v>3447</v>
+      </c>
+      <c r="G365" t="s">
+        <v>3438</v>
+      </c>
+      <c r="H365" s="3" t="s">
+        <v>3454</v>
+      </c>
+      <c r="I365" s="72" t="s">
+        <v>3422</v>
+      </c>
+      <c r="J365" s="72" t="s">
+        <v>3422</v>
+      </c>
+      <c r="K365" s="72" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" ht="28.8">
+      <c r="A366" s="13" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B366" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C366" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D366" s="51" t="s">
+        <v>3431</v>
+      </c>
+      <c r="E366" s="17" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F366" t="s">
+        <v>3448</v>
+      </c>
+      <c r="G366" t="s">
+        <v>3439</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>3455</v>
+      </c>
+      <c r="I366" s="72" t="s">
+        <v>3423</v>
+      </c>
+      <c r="J366" s="72" t="s">
+        <v>3423</v>
+      </c>
+      <c r="K366" s="72" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" ht="57.6">
+      <c r="A367" s="13" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B367" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C367" t="s">
+        <v>3416</v>
+      </c>
+      <c r="D367" s="51" t="s">
+        <v>3432</v>
+      </c>
+      <c r="E367" s="17" t="s">
+        <v>3464</v>
+      </c>
+      <c r="F367" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G367" t="s">
+        <v>3440</v>
+      </c>
+      <c r="H367" s="3" t="s">
+        <v>3456</v>
+      </c>
+      <c r="I367" s="72" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J367" s="72" t="s">
+        <v>3424</v>
+      </c>
+      <c r="K367" s="72" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" ht="86.4">
+      <c r="A368" s="13" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B368" t="s">
+        <v>3425</v>
+      </c>
+      <c r="C368" t="s">
+        <v>3417</v>
+      </c>
+      <c r="D368" s="51" t="s">
+        <v>3433</v>
+      </c>
+      <c r="E368" s="17" t="s">
+        <v>3465</v>
+      </c>
+      <c r="F368" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G368" t="s">
+        <v>3441</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="I368" s="72" t="s">
+        <v>3425</v>
+      </c>
+      <c r="J368" s="72" t="s">
+        <v>3425</v>
+      </c>
+      <c r="K368" s="72" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" ht="57.6">
+      <c r="A369" s="13" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B369" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C369" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D369" s="51" t="s">
+        <v>3434</v>
+      </c>
+      <c r="E369" s="17" t="s">
+        <v>3466</v>
+      </c>
+      <c r="F369" t="s">
+        <v>3451</v>
+      </c>
+      <c r="G369" t="s">
+        <v>3442</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>3458</v>
+      </c>
+      <c r="I369" s="72" t="s">
+        <v>3426</v>
+      </c>
+      <c r="J369" s="72" t="s">
+        <v>3426</v>
+      </c>
+      <c r="K369" s="72" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" ht="86.4">
+      <c r="A370" s="13" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B370" t="s">
+        <v>3427</v>
+      </c>
+      <c r="C370" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D370" s="51" t="s">
+        <v>3435</v>
+      </c>
+      <c r="E370" s="17" t="s">
+        <v>3467</v>
+      </c>
+      <c r="F370" t="s">
+        <v>3445</v>
+      </c>
+      <c r="G370" t="s">
+        <v>3443</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>3459</v>
+      </c>
+      <c r="I370" s="72" t="s">
+        <v>3427</v>
+      </c>
+      <c r="J370" s="72" t="s">
+        <v>3427</v>
+      </c>
+      <c r="K370" s="72" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" ht="16.8">
+      <c r="A371" s="13" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B371" s="76" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C371" s="76" t="s">
+        <v>3491</v>
+      </c>
+      <c r="D371" s="76" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E371" s="76" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F371" s="76" t="s">
+        <v>3494</v>
+      </c>
+      <c r="G371" s="76" t="s">
+        <v>3495</v>
+      </c>
+      <c r="H371" s="76" t="s">
+        <v>3496</v>
+      </c>
+      <c r="I371" s="76" t="s">
+        <v>3497</v>
+      </c>
+      <c r="J371" s="76" t="s">
+        <v>3498</v>
+      </c>
+      <c r="K371" s="76" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" ht="43.2">
+      <c r="A372" s="16" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B372" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C372" t="s">
+        <v>3509</v>
+      </c>
+      <c r="D372" s="51" t="s">
+        <v>3509</v>
+      </c>
+      <c r="E372" s="17" t="s">
+        <v>3509</v>
+      </c>
+      <c r="F372" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G372" t="s">
+        <v>3509</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>3509</v>
+      </c>
+      <c r="I372" s="3" t="s">
+        <v>3509</v>
+      </c>
+      <c r="J372" s="13" t="s">
+        <v>3509</v>
+      </c>
+      <c r="K372" s="13" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11">
+      <c r="A373" s="16" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B373" s="72" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C373" s="72" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D373" s="72" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E373" s="72" t="s">
+        <v>3512</v>
+      </c>
+      <c r="F373" s="72" t="s">
+        <v>3512</v>
+      </c>
+      <c r="G373" s="72" t="s">
+        <v>3512</v>
+      </c>
+      <c r="H373" s="72" t="s">
+        <v>3512</v>
+      </c>
+      <c r="I373" s="72" t="s">
+        <v>3512</v>
+      </c>
+      <c r="J373" s="72" t="s">
+        <v>3512</v>
+      </c>
+      <c r="K373" s="72" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11">
+      <c r="A374" s="16" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B374" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C374" s="72" t="s">
+        <v>3516</v>
+      </c>
+      <c r="D374" s="72" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E374" s="72" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F374" s="72" t="s">
+        <v>3516</v>
+      </c>
+      <c r="G374" s="72" t="s">
+        <v>3516</v>
+      </c>
+      <c r="H374" s="72" t="s">
+        <v>3516</v>
+      </c>
+      <c r="I374" s="72" t="s">
+        <v>3516</v>
+      </c>
+      <c r="J374" s="72" t="s">
+        <v>3516</v>
+      </c>
+      <c r="K374" s="72" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11">
+      <c r="A375" s="16" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B375" s="72" t="s">
+        <v>3518</v>
+      </c>
+      <c r="C375" s="72" t="s">
+        <v>3518</v>
+      </c>
+      <c r="D375" s="72" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E375" s="72" t="s">
+        <v>3518</v>
+      </c>
+      <c r="F375" s="72" t="s">
+        <v>3518</v>
+      </c>
+      <c r="G375" s="72" t="s">
+        <v>3518</v>
+      </c>
+      <c r="H375" s="72" t="s">
+        <v>3518</v>
+      </c>
+      <c r="I375" s="72" t="s">
+        <v>3518</v>
+      </c>
+      <c r="J375" s="72" t="s">
+        <v>3518</v>
+      </c>
+      <c r="K375" s="72" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11">
+      <c r="A376" s="16" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B376" s="72" t="s">
+        <v>3519</v>
+      </c>
+      <c r="C376" s="72" t="s">
+        <v>3519</v>
+      </c>
+      <c r="D376" s="72" t="s">
+        <v>3519</v>
+      </c>
+      <c r="E376" s="72" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F376" s="72" t="s">
+        <v>3519</v>
+      </c>
+      <c r="G376" s="72" t="s">
+        <v>3519</v>
+      </c>
+      <c r="H376" s="72" t="s">
+        <v>3519</v>
+      </c>
+      <c r="I376" s="72" t="s">
+        <v>3519</v>
+      </c>
+      <c r="J376" s="72" t="s">
+        <v>3519</v>
+      </c>
+      <c r="K376" s="72" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11">
+      <c r="A377" s="16" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B377" s="72" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C377" s="72" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D377" s="72" t="s">
+        <v>3520</v>
+      </c>
+      <c r="E377" s="72" t="s">
+        <v>3520</v>
+      </c>
+      <c r="F377" s="72" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G377" s="72" t="s">
+        <v>3520</v>
+      </c>
+      <c r="H377" s="72" t="s">
+        <v>3520</v>
+      </c>
+      <c r="I377" s="72" t="s">
+        <v>3520</v>
+      </c>
+      <c r="J377" s="72" t="s">
+        <v>3520</v>
+      </c>
+      <c r="K377" s="72" t="s">
+        <v>3520</v>
       </c>
     </row>
   </sheetData>
